--- a/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8105683093540677</v>
+        <v>0.8105683093541529</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3131453475667882</v>
+        <v>0.3131453475668025</v>
       </c>
       <c r="E2">
-        <v>0.3118319046550582</v>
+        <v>0.3118319046550226</v>
       </c>
       <c r="F2">
-        <v>6.65957859397875</v>
+        <v>6.659578593978694</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.786985284038025</v>
+        <v>2.786985284038039</v>
       </c>
       <c r="K2">
         <v>0.8833557215782122</v>
       </c>
       <c r="L2">
-        <v>1.06020394933099</v>
+        <v>1.060203949330997</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7005416158241644</v>
+        <v>0.700541615824136</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2698970812546833</v>
+        <v>0.2698970812544985</v>
       </c>
       <c r="E3">
-        <v>0.2717211538698621</v>
+        <v>0.2717211538697697</v>
       </c>
       <c r="F3">
-        <v>5.714422766759071</v>
+        <v>5.7144227667591</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.37406906331006</v>
+        <v>2.374069063310102</v>
       </c>
       <c r="K3">
         <v>0.7515585728191212</v>
       </c>
       <c r="L3">
-        <v>0.9051819850862444</v>
+        <v>0.9051819850862302</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6346761911890155</v>
+        <v>0.6346761911890439</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2447743328983591</v>
+        <v>0.2447743328984728</v>
       </c>
       <c r="E4">
-        <v>0.2481840696464666</v>
+        <v>0.2481840696465056</v>
       </c>
       <c r="F4">
-        <v>5.16145497372591</v>
+        <v>5.161454973726023</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.12908913890098</v>
+        <v>2.129089138900994</v>
       </c>
       <c r="K4">
-        <v>0.6734829139359206</v>
+        <v>0.6734829139359277</v>
       </c>
       <c r="L4">
-        <v>0.8130495391279311</v>
+        <v>0.8130495391279453</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6081937499119761</v>
+        <v>0.6081937499120613</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2348344181550601</v>
+        <v>0.2348344181547333</v>
       </c>
       <c r="E5">
-        <v>0.2388049144215358</v>
+        <v>0.2388049144214897</v>
       </c>
       <c r="F5">
-        <v>4.941811898446588</v>
+        <v>4.941811898446531</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.03099005688162</v>
+        <v>2.030990056881606</v>
       </c>
       <c r="K5">
-        <v>0.6422503115293665</v>
+        <v>0.642250311529402</v>
       </c>
       <c r="L5">
-        <v>0.7761350591998024</v>
+        <v>0.776135059199774</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2332002660695736</v>
+        <v>0.2332002660699999</v>
       </c>
       <c r="E6">
-        <v>0.2372587569671545</v>
+        <v>0.2372587569670834</v>
       </c>
       <c r="F6">
         <v>4.905653403139468</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.014794526772747</v>
+        <v>2.014794526772761</v>
       </c>
       <c r="K6">
-        <v>0.6370959695201179</v>
+        <v>0.6370959695201321</v>
       </c>
       <c r="L6">
-        <v>0.7700399104774647</v>
+        <v>0.7700399104774718</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6343176706926386</v>
+        <v>0.6343176706926101</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2446391485768231</v>
+        <v>0.2446391485767947</v>
       </c>
       <c r="E7">
-        <v>0.2480567921548555</v>
+        <v>0.2480567921548804</v>
       </c>
       <c r="F7">
-        <v>5.158471150858958</v>
+        <v>5.158471150858929</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.127759626978573</v>
+        <v>2.127759626978559</v>
       </c>
       <c r="K7">
-        <v>0.6730594950063349</v>
+        <v>0.6730594950063278</v>
       </c>
       <c r="L7">
-        <v>0.8125493108173885</v>
+        <v>0.8125493108173814</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7722363407730484</v>
+        <v>0.7722363407730199</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2978951041391014</v>
+        <v>0.2978951041392861</v>
       </c>
       <c r="E8">
-        <v>0.2977337649024463</v>
+        <v>0.2977337649024818</v>
       </c>
       <c r="F8">
-        <v>6.32722940270213</v>
+        <v>6.327229402702187</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>2.642560077218562</v>
       </c>
       <c r="K8">
-        <v>0.8372336444631969</v>
+        <v>0.8372336444632111</v>
       </c>
       <c r="L8">
-        <v>1.006028849868393</v>
+        <v>1.006028849868365</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.059819816533945</v>
+        <v>1.059819816533917</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4172418602198036</v>
+        <v>0.4172418602200025</v>
       </c>
       <c r="E9">
-        <v>0.4074878825228012</v>
+        <v>0.4074878825228154</v>
       </c>
       <c r="F9">
-        <v>8.90363652408638</v>
+        <v>8.903636524086409</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.743964257241984</v>
+        <v>3.743964257241998</v>
       </c>
       <c r="K9">
-        <v>1.189310300833966</v>
+        <v>1.189310300833952</v>
       </c>
       <c r="L9">
-        <v>1.417404714246331</v>
+        <v>1.417404714246345</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.288231765757246</v>
+        <v>1.288231765757217</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5207097572214821</v>
+        <v>0.5207097572212263</v>
       </c>
       <c r="E10">
-        <v>0.5029259203826655</v>
+        <v>0.5029259203826868</v>
       </c>
       <c r="F10">
-        <v>11.09637299075587</v>
+        <v>11.09637299075598</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.654752164751557</v>
+        <v>4.654752164751585</v>
       </c>
       <c r="K10">
-        <v>1.480464623970178</v>
+        <v>1.480464623970249</v>
       </c>
       <c r="L10">
-        <v>1.753528357297782</v>
+        <v>1.753528357297768</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.398022312727392</v>
+        <v>1.39802231272742</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5735062401801656</v>
+        <v>0.5735062401804498</v>
       </c>
       <c r="E11">
-        <v>0.5522076222985959</v>
+        <v>0.5522076222986527</v>
       </c>
       <c r="F11">
         <v>12.20215722671145</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.106902605225116</v>
+        <v>5.106902605225173</v>
       </c>
       <c r="K11">
-        <v>1.624771948497511</v>
+        <v>1.624771948497525</v>
       </c>
       <c r="L11">
-        <v>1.918641950927523</v>
+        <v>1.918641950927565</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.440706523740232</v>
+        <v>1.440706523740062</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0.5946173084260522</v>
       </c>
       <c r="E12">
-        <v>0.5720683259831887</v>
+        <v>0.5720683259831176</v>
       </c>
       <c r="F12">
-        <v>12.64195929431952</v>
+        <v>12.64195929431963</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.285586920992841</v>
+        <v>5.285586920992785</v>
       </c>
       <c r="K12">
-        <v>1.681732071223308</v>
+        <v>1.68173207122328</v>
       </c>
       <c r="L12">
-        <v>1.983531358159667</v>
+        <v>1.983531358159638</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.431459119084877</v>
+        <v>1.431459119084991</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5900148558671106</v>
+        <v>0.5900148558673664</v>
       </c>
       <c r="E13">
-        <v>0.5677301502917516</v>
+        <v>0.5677301502917373</v>
       </c>
       <c r="F13">
-        <v>12.54619020358632</v>
+        <v>12.54619020358638</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.246730190272615</v>
+        <v>5.246730190272558</v>
       </c>
       <c r="K13">
-        <v>1.669349282178558</v>
+        <v>1.669349282178516</v>
       </c>
       <c r="L13">
-        <v>1.969438665884439</v>
+        <v>1.969438665884425</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.401509882631217</v>
+        <v>1.401509882631132</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5752185122456126</v>
+        <v>0.5752185122455842</v>
       </c>
       <c r="E14">
-        <v>0.5538149138033788</v>
+        <v>0.5538149138033646</v>
       </c>
       <c r="F14">
-        <v>12.23787805559533</v>
+        <v>12.23787805559539</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.121438732423115</v>
+        <v>5.121438732423144</v>
       </c>
       <c r="K14">
         <v>1.629407316881583</v>
       </c>
       <c r="L14">
-        <v>1.923928672780264</v>
+        <v>1.923928672780278</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.383318992210377</v>
+        <v>1.383318992210775</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5663117967650066</v>
+        <v>0.5663117967643814</v>
       </c>
       <c r="E15">
-        <v>0.5454608952494837</v>
+        <v>0.5454608952493913</v>
       </c>
       <c r="F15">
-        <v>12.05197320071625</v>
+        <v>12.0519732007163</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.045740994665721</v>
+        <v>5.045740994665692</v>
       </c>
       <c r="K15">
-        <v>1.605265400201148</v>
+        <v>1.605265400201077</v>
       </c>
       <c r="L15">
-        <v>1.896382665757116</v>
+        <v>1.896382665757088</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.281195481412396</v>
+        <v>1.281195481412425</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5173971980677834</v>
+        <v>0.5173971980674139</v>
       </c>
       <c r="E16">
-        <v>0.4998501826464832</v>
+        <v>0.4998501826464761</v>
       </c>
       <c r="F16">
         <v>11.02670780038261</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.626119164599373</v>
+        <v>4.626119164599402</v>
       </c>
       <c r="K16">
-        <v>1.471319171716743</v>
+        <v>1.471319171716715</v>
       </c>
       <c r="L16">
-        <v>1.743030308900245</v>
+        <v>1.743030308900217</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.220212766168061</v>
+        <v>1.220212766167975</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4890320057263864</v>
+        <v>0.4890320057261874</v>
       </c>
       <c r="E17">
-        <v>0.4735794144602821</v>
+        <v>0.4735794144603673</v>
       </c>
       <c r="F17">
-        <v>10.42875348053107</v>
+        <v>10.4287534805311</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.379586008621374</v>
+        <v>4.379586008621345</v>
       </c>
       <c r="K17">
-        <v>1.392548615177645</v>
+        <v>1.392548615177674</v>
       </c>
       <c r="L17">
-        <v>1.652445581259769</v>
+        <v>1.652445581259826</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.185671141779892</v>
+        <v>1.185671141779864</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>0.4732335270764167</v>
       </c>
       <c r="E18">
-        <v>0.4589934072425308</v>
+        <v>0.4589934072426161</v>
       </c>
       <c r="F18">
-        <v>10.09459592351445</v>
+        <v>10.09459592351453</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>4.241190467432091</v>
       </c>
       <c r="K18">
-        <v>1.348311308478017</v>
+        <v>1.348311308478003</v>
       </c>
       <c r="L18">
-        <v>1.601446124514325</v>
+        <v>1.601446124514283</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.174061085191056</v>
+        <v>1.174061085191113</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4679659524066153</v>
+        <v>0.4679659524066437</v>
       </c>
       <c r="E19">
-        <v>0.4541364191477086</v>
+        <v>0.4541364191476731</v>
       </c>
       <c r="F19">
-        <v>9.982999583215189</v>
+        <v>9.982999583215218</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.194867461119401</v>
+        <v>4.194867461119372</v>
       </c>
       <c r="K19">
-        <v>1.333502075339055</v>
+        <v>1.333502075339084</v>
       </c>
       <c r="L19">
-        <v>1.584352950369563</v>
+        <v>1.584352950369549</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.226647599395221</v>
+        <v>1.226647599395278</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4919963134534555</v>
+        <v>0.4919963134534839</v>
       </c>
       <c r="E20">
-        <v>0.4763196364577738</v>
+        <v>0.4763196364577951</v>
       </c>
       <c r="F20">
-        <v>10.4913625371359</v>
+        <v>10.49136253713584</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>4.405465473285915</v>
       </c>
       <c r="K20">
-        <v>1.400819524098452</v>
+        <v>1.400819524098466</v>
       </c>
       <c r="L20">
         <v>1.661970693889415</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.410274012672261</v>
+        <v>1.410274012672431</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5795312336390452</v>
+        <v>0.5795312336390168</v>
       </c>
       <c r="E21">
-        <v>0.5578659533545576</v>
+        <v>0.557865953354586</v>
       </c>
       <c r="F21">
-        <v>12.32780974074012</v>
+        <v>12.32780974074024</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>5.158016770067661</v>
       </c>
       <c r="K21">
-        <v>1.64107031564248</v>
+        <v>1.641070315642494</v>
       </c>
       <c r="L21">
-        <v>1.937225791512873</v>
+        <v>1.937225791512844</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.536953987157887</v>
+        <v>1.536953987157858</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6435019350058155</v>
+        <v>0.6435019350057019</v>
       </c>
       <c r="E22">
-        <v>0.6184573090476562</v>
+        <v>0.6184573090475425</v>
       </c>
       <c r="F22">
-        <v>13.65533984485171</v>
+        <v>13.65533984485199</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.695047852179414</v>
+        <v>5.695047852179385</v>
       </c>
       <c r="K22">
-        <v>1.812074718053239</v>
+        <v>1.812074718053253</v>
       </c>
       <c r="L22">
-        <v>2.131396962256488</v>
+        <v>2.131396962256503</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.468616332946084</v>
+        <v>1.46861633294597</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6086065040825304</v>
+        <v>0.6086065040823883</v>
       </c>
       <c r="E23">
-        <v>0.5852839912748067</v>
+        <v>0.5852839912748209</v>
       </c>
       <c r="F23">
-        <v>12.93266726052173</v>
+        <v>12.93266726052155</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.403362172715589</v>
+        <v>5.403362172715532</v>
       </c>
       <c r="K23">
         <v>1.719250842931743</v>
       </c>
       <c r="L23">
-        <v>2.026183517592457</v>
+        <v>2.026183517592443</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.223736815701386</v>
+        <v>1.223736815701471</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4906545846660322</v>
+        <v>0.4906545846660606</v>
       </c>
       <c r="E24">
-        <v>0.4750791947184325</v>
+        <v>0.475079194718468</v>
       </c>
       <c r="F24">
-        <v>10.46302741547692</v>
+        <v>10.46302741547677</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.393755104565031</v>
+        <v>4.393755104564917</v>
       </c>
       <c r="K24">
-        <v>1.397077021058905</v>
+        <v>1.397077021058877</v>
       </c>
       <c r="L24">
         <v>1.657661072082277</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.979595375459013</v>
+        <v>0.9795953754593256</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3827815228234357</v>
+        <v>0.3827815228235636</v>
       </c>
       <c r="E25">
-        <v>0.3758644138626366</v>
+        <v>0.3758644138627147</v>
       </c>
       <c r="F25">
-        <v>8.165257170759304</v>
+        <v>8.165257170759446</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>3.432248859983616</v>
       </c>
       <c r="K25">
-        <v>1.089615828042312</v>
+        <v>1.08961582804227</v>
       </c>
       <c r="L25">
-        <v>1.301441215343459</v>
+        <v>1.301441215343445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8105683093541529</v>
+        <v>0.8105683093540677</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3131453475668025</v>
+        <v>0.3131453475667882</v>
       </c>
       <c r="E2">
-        <v>0.3118319046550226</v>
+        <v>0.3118319046550582</v>
       </c>
       <c r="F2">
-        <v>6.659578593978694</v>
+        <v>6.65957859397875</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.786985284038039</v>
+        <v>2.786985284038025</v>
       </c>
       <c r="K2">
         <v>0.8833557215782122</v>
       </c>
       <c r="L2">
-        <v>1.060203949330997</v>
+        <v>1.06020394933099</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.700541615824136</v>
+        <v>0.7005416158241644</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2698970812544985</v>
+        <v>0.2698970812546833</v>
       </c>
       <c r="E3">
-        <v>0.2717211538697697</v>
+        <v>0.2717211538698621</v>
       </c>
       <c r="F3">
-        <v>5.7144227667591</v>
+        <v>5.714422766759071</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.374069063310102</v>
+        <v>2.37406906331006</v>
       </c>
       <c r="K3">
         <v>0.7515585728191212</v>
       </c>
       <c r="L3">
-        <v>0.9051819850862302</v>
+        <v>0.9051819850862444</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6346761911890439</v>
+        <v>0.6346761911890155</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2447743328984728</v>
+        <v>0.2447743328983591</v>
       </c>
       <c r="E4">
-        <v>0.2481840696465056</v>
+        <v>0.2481840696464666</v>
       </c>
       <c r="F4">
-        <v>5.161454973726023</v>
+        <v>5.16145497372591</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.129089138900994</v>
+        <v>2.12908913890098</v>
       </c>
       <c r="K4">
-        <v>0.6734829139359277</v>
+        <v>0.6734829139359206</v>
       </c>
       <c r="L4">
-        <v>0.8130495391279453</v>
+        <v>0.8130495391279311</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6081937499120613</v>
+        <v>0.6081937499119761</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2348344181547333</v>
+        <v>0.2348344181550601</v>
       </c>
       <c r="E5">
-        <v>0.2388049144214897</v>
+        <v>0.2388049144215358</v>
       </c>
       <c r="F5">
-        <v>4.941811898446531</v>
+        <v>4.941811898446588</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.030990056881606</v>
+        <v>2.03099005688162</v>
       </c>
       <c r="K5">
-        <v>0.642250311529402</v>
+        <v>0.6422503115293665</v>
       </c>
       <c r="L5">
-        <v>0.776135059199774</v>
+        <v>0.7761350591998024</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2332002660699999</v>
+        <v>0.2332002660695736</v>
       </c>
       <c r="E6">
-        <v>0.2372587569670834</v>
+        <v>0.2372587569671545</v>
       </c>
       <c r="F6">
         <v>4.905653403139468</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.014794526772761</v>
+        <v>2.014794526772747</v>
       </c>
       <c r="K6">
-        <v>0.6370959695201321</v>
+        <v>0.6370959695201179</v>
       </c>
       <c r="L6">
-        <v>0.7700399104774718</v>
+        <v>0.7700399104774647</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6343176706926101</v>
+        <v>0.6343176706926386</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2446391485767947</v>
+        <v>0.2446391485768231</v>
       </c>
       <c r="E7">
-        <v>0.2480567921548804</v>
+        <v>0.2480567921548555</v>
       </c>
       <c r="F7">
-        <v>5.158471150858929</v>
+        <v>5.158471150858958</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.127759626978559</v>
+        <v>2.127759626978573</v>
       </c>
       <c r="K7">
-        <v>0.6730594950063278</v>
+        <v>0.6730594950063349</v>
       </c>
       <c r="L7">
-        <v>0.8125493108173814</v>
+        <v>0.8125493108173885</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7722363407730199</v>
+        <v>0.7722363407730484</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2978951041392861</v>
+        <v>0.2978951041391014</v>
       </c>
       <c r="E8">
-        <v>0.2977337649024818</v>
+        <v>0.2977337649024463</v>
       </c>
       <c r="F8">
-        <v>6.327229402702187</v>
+        <v>6.32722940270213</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>2.642560077218562</v>
       </c>
       <c r="K8">
-        <v>0.8372336444632111</v>
+        <v>0.8372336444631969</v>
       </c>
       <c r="L8">
-        <v>1.006028849868365</v>
+        <v>1.006028849868393</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.059819816533917</v>
+        <v>1.059819816533945</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4172418602200025</v>
+        <v>0.4172418602198036</v>
       </c>
       <c r="E9">
-        <v>0.4074878825228154</v>
+        <v>0.4074878825228012</v>
       </c>
       <c r="F9">
-        <v>8.903636524086409</v>
+        <v>8.90363652408638</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.743964257241998</v>
+        <v>3.743964257241984</v>
       </c>
       <c r="K9">
-        <v>1.189310300833952</v>
+        <v>1.189310300833966</v>
       </c>
       <c r="L9">
-        <v>1.417404714246345</v>
+        <v>1.417404714246331</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.288231765757217</v>
+        <v>1.288231765757246</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5207097572212263</v>
+        <v>0.5207097572214821</v>
       </c>
       <c r="E10">
-        <v>0.5029259203826868</v>
+        <v>0.5029259203826655</v>
       </c>
       <c r="F10">
-        <v>11.09637299075598</v>
+        <v>11.09637299075587</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.654752164751585</v>
+        <v>4.654752164751557</v>
       </c>
       <c r="K10">
-        <v>1.480464623970249</v>
+        <v>1.480464623970178</v>
       </c>
       <c r="L10">
-        <v>1.753528357297768</v>
+        <v>1.753528357297782</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.39802231272742</v>
+        <v>1.398022312727392</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5735062401804498</v>
+        <v>0.5735062401801656</v>
       </c>
       <c r="E11">
-        <v>0.5522076222986527</v>
+        <v>0.5522076222985959</v>
       </c>
       <c r="F11">
         <v>12.20215722671145</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.106902605225173</v>
+        <v>5.106902605225116</v>
       </c>
       <c r="K11">
-        <v>1.624771948497525</v>
+        <v>1.624771948497511</v>
       </c>
       <c r="L11">
-        <v>1.918641950927565</v>
+        <v>1.918641950927523</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.440706523740062</v>
+        <v>1.440706523740232</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0.5946173084260522</v>
       </c>
       <c r="E12">
-        <v>0.5720683259831176</v>
+        <v>0.5720683259831887</v>
       </c>
       <c r="F12">
-        <v>12.64195929431963</v>
+        <v>12.64195929431952</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.285586920992785</v>
+        <v>5.285586920992841</v>
       </c>
       <c r="K12">
-        <v>1.68173207122328</v>
+        <v>1.681732071223308</v>
       </c>
       <c r="L12">
-        <v>1.983531358159638</v>
+        <v>1.983531358159667</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.431459119084991</v>
+        <v>1.431459119084877</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5900148558673664</v>
+        <v>0.5900148558671106</v>
       </c>
       <c r="E13">
-        <v>0.5677301502917373</v>
+        <v>0.5677301502917516</v>
       </c>
       <c r="F13">
-        <v>12.54619020358638</v>
+        <v>12.54619020358632</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.246730190272558</v>
+        <v>5.246730190272615</v>
       </c>
       <c r="K13">
-        <v>1.669349282178516</v>
+        <v>1.669349282178558</v>
       </c>
       <c r="L13">
-        <v>1.969438665884425</v>
+        <v>1.969438665884439</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.401509882631132</v>
+        <v>1.401509882631217</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5752185122455842</v>
+        <v>0.5752185122456126</v>
       </c>
       <c r="E14">
-        <v>0.5538149138033646</v>
+        <v>0.5538149138033788</v>
       </c>
       <c r="F14">
-        <v>12.23787805559539</v>
+        <v>12.23787805559533</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.121438732423144</v>
+        <v>5.121438732423115</v>
       </c>
       <c r="K14">
         <v>1.629407316881583</v>
       </c>
       <c r="L14">
-        <v>1.923928672780278</v>
+        <v>1.923928672780264</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.383318992210775</v>
+        <v>1.383318992210377</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5663117967643814</v>
+        <v>0.5663117967650066</v>
       </c>
       <c r="E15">
-        <v>0.5454608952493913</v>
+        <v>0.5454608952494837</v>
       </c>
       <c r="F15">
-        <v>12.0519732007163</v>
+        <v>12.05197320071625</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.045740994665692</v>
+        <v>5.045740994665721</v>
       </c>
       <c r="K15">
-        <v>1.605265400201077</v>
+        <v>1.605265400201148</v>
       </c>
       <c r="L15">
-        <v>1.896382665757088</v>
+        <v>1.896382665757116</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.281195481412425</v>
+        <v>1.281195481412396</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5173971980674139</v>
+        <v>0.5173971980677834</v>
       </c>
       <c r="E16">
-        <v>0.4998501826464761</v>
+        <v>0.4998501826464832</v>
       </c>
       <c r="F16">
         <v>11.02670780038261</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.626119164599402</v>
+        <v>4.626119164599373</v>
       </c>
       <c r="K16">
-        <v>1.471319171716715</v>
+        <v>1.471319171716743</v>
       </c>
       <c r="L16">
-        <v>1.743030308900217</v>
+        <v>1.743030308900245</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.220212766167975</v>
+        <v>1.220212766168061</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4890320057261874</v>
+        <v>0.4890320057263864</v>
       </c>
       <c r="E17">
-        <v>0.4735794144603673</v>
+        <v>0.4735794144602821</v>
       </c>
       <c r="F17">
-        <v>10.4287534805311</v>
+        <v>10.42875348053107</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.379586008621345</v>
+        <v>4.379586008621374</v>
       </c>
       <c r="K17">
-        <v>1.392548615177674</v>
+        <v>1.392548615177645</v>
       </c>
       <c r="L17">
-        <v>1.652445581259826</v>
+        <v>1.652445581259769</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.185671141779864</v>
+        <v>1.185671141779892</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>0.4732335270764167</v>
       </c>
       <c r="E18">
-        <v>0.4589934072426161</v>
+        <v>0.4589934072425308</v>
       </c>
       <c r="F18">
-        <v>10.09459592351453</v>
+        <v>10.09459592351445</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>4.241190467432091</v>
       </c>
       <c r="K18">
-        <v>1.348311308478003</v>
+        <v>1.348311308478017</v>
       </c>
       <c r="L18">
-        <v>1.601446124514283</v>
+        <v>1.601446124514325</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.174061085191113</v>
+        <v>1.174061085191056</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4679659524066437</v>
+        <v>0.4679659524066153</v>
       </c>
       <c r="E19">
-        <v>0.4541364191476731</v>
+        <v>0.4541364191477086</v>
       </c>
       <c r="F19">
-        <v>9.982999583215218</v>
+        <v>9.982999583215189</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.194867461119372</v>
+        <v>4.194867461119401</v>
       </c>
       <c r="K19">
-        <v>1.333502075339084</v>
+        <v>1.333502075339055</v>
       </c>
       <c r="L19">
-        <v>1.584352950369549</v>
+        <v>1.584352950369563</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.226647599395278</v>
+        <v>1.226647599395221</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4919963134534839</v>
+        <v>0.4919963134534555</v>
       </c>
       <c r="E20">
-        <v>0.4763196364577951</v>
+        <v>0.4763196364577738</v>
       </c>
       <c r="F20">
-        <v>10.49136253713584</v>
+        <v>10.4913625371359</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>4.405465473285915</v>
       </c>
       <c r="K20">
-        <v>1.400819524098466</v>
+        <v>1.400819524098452</v>
       </c>
       <c r="L20">
         <v>1.661970693889415</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.410274012672431</v>
+        <v>1.410274012672261</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5795312336390168</v>
+        <v>0.5795312336390452</v>
       </c>
       <c r="E21">
-        <v>0.557865953354586</v>
+        <v>0.5578659533545576</v>
       </c>
       <c r="F21">
-        <v>12.32780974074024</v>
+        <v>12.32780974074012</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>5.158016770067661</v>
       </c>
       <c r="K21">
-        <v>1.641070315642494</v>
+        <v>1.64107031564248</v>
       </c>
       <c r="L21">
-        <v>1.937225791512844</v>
+        <v>1.937225791512873</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.536953987157858</v>
+        <v>1.536953987157887</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6435019350057019</v>
+        <v>0.6435019350058155</v>
       </c>
       <c r="E22">
-        <v>0.6184573090475425</v>
+        <v>0.6184573090476562</v>
       </c>
       <c r="F22">
-        <v>13.65533984485199</v>
+        <v>13.65533984485171</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.695047852179385</v>
+        <v>5.695047852179414</v>
       </c>
       <c r="K22">
-        <v>1.812074718053253</v>
+        <v>1.812074718053239</v>
       </c>
       <c r="L22">
-        <v>2.131396962256503</v>
+        <v>2.131396962256488</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.46861633294597</v>
+        <v>1.468616332946084</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6086065040823883</v>
+        <v>0.6086065040825304</v>
       </c>
       <c r="E23">
-        <v>0.5852839912748209</v>
+        <v>0.5852839912748067</v>
       </c>
       <c r="F23">
-        <v>12.93266726052155</v>
+        <v>12.93266726052173</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.403362172715532</v>
+        <v>5.403362172715589</v>
       </c>
       <c r="K23">
         <v>1.719250842931743</v>
       </c>
       <c r="L23">
-        <v>2.026183517592443</v>
+        <v>2.026183517592457</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.223736815701471</v>
+        <v>1.223736815701386</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4906545846660606</v>
+        <v>0.4906545846660322</v>
       </c>
       <c r="E24">
-        <v>0.475079194718468</v>
+        <v>0.4750791947184325</v>
       </c>
       <c r="F24">
-        <v>10.46302741547677</v>
+        <v>10.46302741547692</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.393755104564917</v>
+        <v>4.393755104565031</v>
       </c>
       <c r="K24">
-        <v>1.397077021058877</v>
+        <v>1.397077021058905</v>
       </c>
       <c r="L24">
         <v>1.657661072082277</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9795953754593256</v>
+        <v>0.979595375459013</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3827815228235636</v>
+        <v>0.3827815228234357</v>
       </c>
       <c r="E25">
-        <v>0.3758644138627147</v>
+        <v>0.3758644138626366</v>
       </c>
       <c r="F25">
-        <v>8.165257170759446</v>
+        <v>8.165257170759304</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>3.432248859983616</v>
       </c>
       <c r="K25">
-        <v>1.08961582804227</v>
+        <v>1.089615828042312</v>
       </c>
       <c r="L25">
-        <v>1.301441215343445</v>
+        <v>1.301441215343459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8105683093540677</v>
+        <v>0.8081578767690303</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3131453475667882</v>
+        <v>0.3139927627605346</v>
       </c>
       <c r="E2">
-        <v>0.3118319046550582</v>
+        <v>0.2954308027652246</v>
       </c>
       <c r="F2">
-        <v>6.65957859397875</v>
+        <v>6.63208982603399</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007218499533220237</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.786985284038025</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8833557215782122</v>
+        <v>2.739447146403734</v>
       </c>
       <c r="L2">
-        <v>1.06020394933099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.8730381587933636</v>
+      </c>
+      <c r="M2">
+        <v>1.051151277629451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7005416158241644</v>
+        <v>0.6988532088222144</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2698970812546833</v>
+        <v>0.2717380218523715</v>
       </c>
       <c r="E3">
-        <v>0.2717211538698621</v>
+        <v>0.2565079270064743</v>
       </c>
       <c r="F3">
-        <v>5.714422766759071</v>
+        <v>5.702269347807714</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007388238395785065</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.37406906331006</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7515585728191212</v>
+        <v>2.332984917308579</v>
       </c>
       <c r="L3">
-        <v>0.9051819850862444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.7429792681394076</v>
+      </c>
+      <c r="M3">
+        <v>0.8978713113118388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6346761911890155</v>
+        <v>0.6334163373865067</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2447743328983591</v>
+        <v>0.2471998580874839</v>
       </c>
       <c r="E4">
-        <v>0.2481840696464666</v>
+        <v>0.2336664168467983</v>
       </c>
       <c r="F4">
-        <v>5.16145497372591</v>
+        <v>5.158260980703631</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007493210926919679</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.12908913890098</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6734829139359206</v>
+        <v>2.091824350066503</v>
       </c>
       <c r="L4">
-        <v>0.8130495391279311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.6659281561982624</v>
+      </c>
+      <c r="M4">
+        <v>0.8067681775645354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6081937499119761</v>
+        <v>0.6071059888470529</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2348344181550601</v>
+        <v>0.2374936006538064</v>
       </c>
       <c r="E5">
-        <v>0.2388049144215358</v>
+        <v>0.2245646629298363</v>
       </c>
       <c r="F5">
-        <v>4.941811898446588</v>
+        <v>4.942185101464077</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007536282698660584</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.03099005688162</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6422503115293665</v>
+        <v>1.995257216554947</v>
       </c>
       <c r="L5">
-        <v>0.7761350591998024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.6351055340970504</v>
+      </c>
+      <c r="M5">
+        <v>0.7702661340891837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6038162214444185</v>
+        <v>0.6027569117411815</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2332002660695736</v>
+        <v>0.2358980173716958</v>
       </c>
       <c r="E6">
-        <v>0.2372587569671545</v>
+        <v>0.2230642631337076</v>
       </c>
       <c r="F6">
-        <v>4.905653403139468</v>
+        <v>4.906614646832622</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007543455288565593</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.014794526772747</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6370959695201179</v>
+        <v>1.979314876542304</v>
       </c>
       <c r="L6">
-        <v>0.7700399104774647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.6300188945226068</v>
+      </c>
+      <c r="M6">
+        <v>0.764239124096342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6343176706926386</v>
+        <v>0.6330601467483064</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2446391485768231</v>
+        <v>0.2470678413115053</v>
       </c>
       <c r="E7">
-        <v>0.2480567921548555</v>
+        <v>0.2335429021690274</v>
       </c>
       <c r="F7">
-        <v>5.158471150858958</v>
+        <v>5.15532556994097</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007493790487728703</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.127759626978573</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6730594950063349</v>
+        <v>2.090515584233756</v>
       </c>
       <c r="L7">
-        <v>0.8125493108173885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.6655102931796577</v>
+      </c>
+      <c r="M7">
+        <v>0.8062735363282485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7722363407730484</v>
+        <v>0.7700787244558001</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2978951041391014</v>
+        <v>0.2990916145784297</v>
       </c>
       <c r="E8">
-        <v>0.2977337649024463</v>
+        <v>0.2817509275339773</v>
       </c>
       <c r="F8">
-        <v>6.32722940270213</v>
+        <v>6.305144116280957</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007276938793856589</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.642560077218562</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8372336444631969</v>
+        <v>2.597284960455738</v>
       </c>
       <c r="L8">
-        <v>1.006028849868393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.8275265028709526</v>
+      </c>
+      <c r="M8">
+        <v>0.9975873025734074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.059819816533945</v>
+        <v>1.05570698606121</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4172418602198036</v>
+        <v>0.4157059941853873</v>
       </c>
       <c r="E9">
-        <v>0.4074878825228012</v>
+        <v>0.3882016475554337</v>
       </c>
       <c r="F9">
-        <v>8.90363652408638</v>
+        <v>8.83885037788545</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006851680107264268</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.743964257241984</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.189310300833966</v>
+        <v>3.681072468482839</v>
       </c>
       <c r="L9">
-        <v>1.417404714246331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.174830026696156</v>
+      </c>
+      <c r="M9">
+        <v>1.404201232161569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.288231765757246</v>
+        <v>1.282411184634697</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5207097572214821</v>
+        <v>0.5167306709751642</v>
       </c>
       <c r="E10">
-        <v>0.5029259203826655</v>
+        <v>0.4806193785493136</v>
       </c>
       <c r="F10">
-        <v>11.09637299075587</v>
+        <v>10.99267803110536</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.000652805172848971</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.654752164751557</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.480464623970178</v>
+        <v>4.576206632076662</v>
       </c>
       <c r="L10">
-        <v>1.753528357297782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.461713104728403</v>
+      </c>
+      <c r="M10">
+        <v>1.7360937067576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.398022312727392</v>
+        <v>1.391302984026481</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5735062401801656</v>
+        <v>0.5682226301704816</v>
       </c>
       <c r="E11">
-        <v>0.5522076222985959</v>
+        <v>0.528259401889045</v>
       </c>
       <c r="F11">
-        <v>12.20215722671145</v>
+        <v>12.07743566723929</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006374598838538488</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.106902605225116</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.624771948497511</v>
+        <v>5.020001874826306</v>
       </c>
       <c r="L11">
-        <v>1.918641950927523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.603733705526864</v>
+      </c>
+      <c r="M11">
+        <v>1.898952441737492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.440706523740232</v>
+        <v>1.433619992721646</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5946173084260522</v>
+        <v>0.5887973423577364</v>
       </c>
       <c r="E12">
-        <v>0.5720683259831887</v>
+        <v>0.5474390143796342</v>
       </c>
       <c r="F12">
-        <v>12.64195929431952</v>
+        <v>12.50854535448417</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006315112720390177</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.285586920992841</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.681732071223308</v>
+        <v>5.19524811969336</v>
       </c>
       <c r="L12">
-        <v>1.983531358159667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.659751940380744</v>
+      </c>
+      <c r="M12">
+        <v>1.962915024812531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.431459119084877</v>
+        <v>1.424453076452522</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5900148558671106</v>
+        <v>0.5843126156042615</v>
       </c>
       <c r="E13">
-        <v>0.5677301502917516</v>
+        <v>0.543250640785871</v>
       </c>
       <c r="F13">
-        <v>12.54619020358632</v>
+        <v>12.41468646047019</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006327995212266367</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.246730190272615</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.669349282178558</v>
+        <v>5.157146214375615</v>
       </c>
       <c r="L13">
-        <v>1.969438665884439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.647575980051727</v>
+      </c>
+      <c r="M13">
+        <v>1.949025759984323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.401509882631217</v>
+        <v>1.394760955713338</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5752185122456126</v>
+        <v>0.5698917393880834</v>
       </c>
       <c r="E14">
-        <v>0.5538149138033788</v>
+        <v>0.5298120159611415</v>
       </c>
       <c r="F14">
-        <v>12.23787805559533</v>
+        <v>12.1124579789772</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006369735943079124</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.121438732423115</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.629407316881583</v>
+        <v>5.034261405948598</v>
       </c>
       <c r="L14">
-        <v>1.923928672780264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.608293315306895</v>
+      </c>
+      <c r="M14">
+        <v>1.904164575947107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.383318992210377</v>
+        <v>1.376723688116329</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5663117967650066</v>
+        <v>0.5612089150706652</v>
       </c>
       <c r="E15">
-        <v>0.5454608952494837</v>
+        <v>0.5217413645137938</v>
       </c>
       <c r="F15">
-        <v>12.05197320071625</v>
+        <v>11.93017450486678</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006395106420086247</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.045740994665721</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.605265400201148</v>
+        <v>4.959998273222197</v>
       </c>
       <c r="L15">
-        <v>1.896382665757116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.584544296094961</v>
+      </c>
+      <c r="M15">
+        <v>1.877005471976005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.281195481412396</v>
+        <v>1.275430496925878</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5173971980677834</v>
+        <v>0.5134984077418778</v>
       </c>
       <c r="E16">
-        <v>0.4998501826464832</v>
+        <v>0.4776440103648341</v>
       </c>
       <c r="F16">
-        <v>11.02670780038261</v>
+        <v>10.92430156630081</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006537917915765016</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.626119164599373</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.471319171716743</v>
+        <v>4.54808774545458</v>
       </c>
       <c r="L16">
-        <v>1.743030308900245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.452708233347224</v>
+      </c>
+      <c r="M16">
+        <v>1.725734506524688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.220212766168061</v>
+        <v>1.214920742735529</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4890320057263864</v>
+        <v>0.4858143088770248</v>
       </c>
       <c r="E17">
-        <v>0.4735794144602821</v>
+        <v>0.452221504812286</v>
       </c>
       <c r="F17">
-        <v>10.42875348053107</v>
+        <v>10.33725203274059</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006623644645826979</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.379586008621374</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.392548615177645</v>
+        <v>4.305915551167942</v>
       </c>
       <c r="L17">
-        <v>1.652445581259769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.375129442622594</v>
+      </c>
+      <c r="M17">
+        <v>1.636327952028381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.185671141779892</v>
+        <v>1.180640440231741</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4732335270764167</v>
+        <v>0.470390589141914</v>
       </c>
       <c r="E18">
-        <v>0.4589934072425308</v>
+        <v>0.4380999058852666</v>
       </c>
       <c r="F18">
-        <v>10.09459592351445</v>
+        <v>10.0090739774727</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006672402736489962</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.241190467432091</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.348311308478017</v>
+        <v>4.169920031047781</v>
       </c>
       <c r="L18">
-        <v>1.601446124514325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.331547417865565</v>
+      </c>
+      <c r="M18">
+        <v>1.585977157080904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.174061085191056</v>
+        <v>1.169117231768496</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4679659524066153</v>
+        <v>0.4652473103742807</v>
       </c>
       <c r="E19">
-        <v>0.4541364191477086</v>
+        <v>0.4333965881145616</v>
       </c>
       <c r="F19">
-        <v>9.982999583215189</v>
+        <v>9.899457551194587</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000668882876792211</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.194867461119401</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.333502075339055</v>
+        <v>4.124393183161914</v>
       </c>
       <c r="L19">
-        <v>1.584352950369563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.316955458210487</v>
+      </c>
+      <c r="M19">
+        <v>1.569099197999776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.226647599395221</v>
+        <v>1.221306389241988</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4919963134534555</v>
+        <v>0.4887079526174887</v>
       </c>
       <c r="E20">
-        <v>0.4763196364577738</v>
+        <v>0.4548739746836219</v>
       </c>
       <c r="F20">
-        <v>10.4913625371359</v>
+        <v>10.39873194395432</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006614578674435029</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.405465473285915</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.400819524098452</v>
+        <v>4.331342527823807</v>
       </c>
       <c r="L20">
-        <v>1.661970693889415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.383276758040282</v>
+      </c>
+      <c r="M20">
+        <v>1.645730788453918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.410274012672261</v>
+        <v>1.403450395815639</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5795312336390452</v>
+        <v>0.574095485974226</v>
       </c>
       <c r="E21">
-        <v>0.5578659533545576</v>
+        <v>0.5337249061191187</v>
       </c>
       <c r="F21">
-        <v>12.32780974074012</v>
+        <v>12.20062531192917</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006357517875905846</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.158016770067661</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.64107031564248</v>
+        <v>5.070141053034178</v>
       </c>
       <c r="L21">
-        <v>1.937225791512873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.619765013610873</v>
+      </c>
+      <c r="M21">
+        <v>1.917273382968133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.536953987157887</v>
+        <v>1.528995678828949</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6435019350058155</v>
+        <v>0.6364013800893531</v>
       </c>
       <c r="E22">
-        <v>0.6184573090476562</v>
+        <v>0.5921872388674316</v>
       </c>
       <c r="F22">
-        <v>13.65533984485171</v>
+        <v>13.50106676896195</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006181095534560921</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.695047852179414</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.812074718053239</v>
+        <v>5.596489302539936</v>
       </c>
       <c r="L22">
-        <v>2.131396962256488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.787841198095037</v>
+      </c>
+      <c r="M22">
+        <v>2.108567569559568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.468616332946084</v>
+        <v>1.461283575927268</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6086065040825304</v>
+        <v>0.6024258521948411</v>
       </c>
       <c r="E23">
-        <v>0.5852839912748067</v>
+        <v>0.5601946369298361</v>
       </c>
       <c r="F23">
-        <v>12.93266726052173</v>
+        <v>12.79339301015955</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006276243327544162</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.403362172715589</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.719250842931743</v>
+        <v>5.310709973899804</v>
       </c>
       <c r="L23">
-        <v>2.026183517592457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.696636701424339</v>
+      </c>
+      <c r="M23">
+        <v>2.00494392105773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.223736815701386</v>
+        <v>1.21841787523212</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4906545846660322</v>
+        <v>0.4873982224154361</v>
       </c>
       <c r="E24">
-        <v>0.4750791947184325</v>
+        <v>0.4536732767816645</v>
       </c>
       <c r="F24">
-        <v>10.46302741547692</v>
+        <v>10.37090819498709</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006618679009658778</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.393755104565031</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.397077021058905</v>
+        <v>4.319837056319756</v>
       </c>
       <c r="L24">
-        <v>1.657661072082277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.379590222942767</v>
+      </c>
+      <c r="M24">
+        <v>1.641476535385294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.979595375459013</v>
+        <v>0.9760442970584222</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3827815228234357</v>
+        <v>0.3820381763751328</v>
       </c>
       <c r="E25">
-        <v>0.3758644138626366</v>
+        <v>0.3575437320841601</v>
       </c>
       <c r="F25">
-        <v>8.165257170759304</v>
+        <v>8.112949688053078</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006967695013516918</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.432248859983616</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.089615828042312</v>
+        <v>3.374448084964257</v>
       </c>
       <c r="L25">
-        <v>1.301441215343459</v>
+        <v>1.076519448647304</v>
+      </c>
+      <c r="M25">
+        <v>1.289614537298036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8081578767690303</v>
+        <v>0.2718309465602289</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3139927627605346</v>
+        <v>0.2073653211434419</v>
       </c>
       <c r="E2">
-        <v>0.2954308027652246</v>
+        <v>0.1057412677186278</v>
       </c>
       <c r="F2">
-        <v>6.63208982603399</v>
+        <v>5.550866951520845</v>
       </c>
       <c r="G2">
-        <v>0.0007218499533220237</v>
+        <v>0.0006637448641679454</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.739447146403734</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8730381587933636</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.051151277629451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.504594314675344</v>
+      </c>
+      <c r="N2">
+        <v>1.478651949608974</v>
+      </c>
+      <c r="O2">
+        <v>4.768613764149563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6988532088222144</v>
+        <v>0.2376687418429384</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2717380218523715</v>
+        <v>0.1736229523587269</v>
       </c>
       <c r="E3">
-        <v>0.2565079270064743</v>
+        <v>0.09719068505100026</v>
       </c>
       <c r="F3">
-        <v>5.702269347807714</v>
+        <v>4.694733796882019</v>
       </c>
       <c r="G3">
-        <v>0.0007388238395785065</v>
+        <v>0.0006811970912573885</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.332984917308579</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7429792681394076</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8978713113118388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>3.845770681985499</v>
+      </c>
+      <c r="N3">
+        <v>1.404599290103221</v>
+      </c>
+      <c r="O3">
+        <v>4.030480474282797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6334163373865067</v>
+        <v>0.2168568795488852</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2471998580874839</v>
+        <v>0.154187912944991</v>
       </c>
       <c r="E4">
-        <v>0.2336664168467983</v>
+        <v>0.09194357910485351</v>
       </c>
       <c r="F4">
-        <v>5.158260980703631</v>
+        <v>4.196186295290914</v>
       </c>
       <c r="G4">
-        <v>0.0007493210926919679</v>
+        <v>0.0006919308809876045</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.091824350066503</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6659281561982624</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8067681775645354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.454057348012441</v>
+      </c>
+      <c r="N4">
+        <v>1.360350387678409</v>
+      </c>
+      <c r="O4">
+        <v>3.600956680727336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6071059888470529</v>
+        <v>0.208412265954621</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2374936006538064</v>
+        <v>0.1465287972315679</v>
       </c>
       <c r="E5">
-        <v>0.2245646629298363</v>
+        <v>0.089805277125663</v>
       </c>
       <c r="F5">
-        <v>4.942185101464077</v>
+        <v>3.998571390678364</v>
       </c>
       <c r="G5">
-        <v>0.0007536282698660584</v>
+        <v>0.0006963233142218743</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.995257216554947</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6351055340970504</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7702661340891837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.296998602890625</v>
+      </c>
+      <c r="N5">
+        <v>1.342618311991515</v>
+      </c>
+      <c r="O5">
+        <v>3.430766255635348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6027569117411815</v>
+        <v>0.2070121108234275</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2358980173716958</v>
+        <v>0.1452711794910613</v>
       </c>
       <c r="E6">
-        <v>0.2230642631337076</v>
+        <v>0.08945019711568136</v>
       </c>
       <c r="F6">
-        <v>4.906614646832622</v>
+        <v>3.966059909627319</v>
       </c>
       <c r="G6">
-        <v>0.0007543455288565593</v>
+        <v>0.0006970541360305245</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.979314876542304</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6300188945226068</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.764239124096342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.271057419363132</v>
+      </c>
+      <c r="N6">
+        <v>1.339691806907041</v>
+      </c>
+      <c r="O6">
+        <v>3.402770209545992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6330601467483064</v>
+        <v>0.2167428511977931</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2470678413115053</v>
+        <v>0.1540836362485862</v>
       </c>
       <c r="E7">
-        <v>0.2335429021690274</v>
+        <v>0.09191474211746353</v>
       </c>
       <c r="F7">
-        <v>5.15532556994097</v>
+        <v>4.193500238492959</v>
       </c>
       <c r="G7">
-        <v>0.0007493790487728703</v>
+        <v>0.0006919900282962299</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.090515584233756</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6655102931796577</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8062735363282485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.451929575749816</v>
+      </c>
+      <c r="N7">
+        <v>1.360110042629813</v>
+      </c>
+      <c r="O7">
+        <v>3.598643138821387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7700787244558001</v>
+        <v>0.260014729211349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2990916145784297</v>
+        <v>0.1954232936984539</v>
       </c>
       <c r="E8">
-        <v>0.2817509275339773</v>
+        <v>0.1027916957974213</v>
       </c>
       <c r="F8">
-        <v>6.305144116280957</v>
+        <v>5.24919360609519</v>
       </c>
       <c r="G8">
-        <v>0.0007276938793856589</v>
+        <v>0.0006697678433618435</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.597284960455738</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8275265028709526</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9975873025734074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.274337973447416</v>
+      </c>
+      <c r="N8">
+        <v>1.452861339410433</v>
+      </c>
+      <c r="O8">
+        <v>4.508444285236493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05570698606121</v>
+        <v>0.3464253809770668</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4157059941853873</v>
+        <v>0.2903582800292099</v>
       </c>
       <c r="E9">
-        <v>0.3882016475554337</v>
+        <v>0.1242351378698281</v>
       </c>
       <c r="F9">
-        <v>8.83885037788545</v>
+        <v>7.609807852664431</v>
       </c>
       <c r="G9">
-        <v>0.0006851680107264268</v>
+        <v>0.0006255195139567852</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.681072468482839</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.174830026696156</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.404201232161569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.027290514860965</v>
+      </c>
+      <c r="N9">
+        <v>1.644701040744621</v>
+      </c>
+      <c r="O9">
+        <v>6.546415993951598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.282411184634697</v>
+        <v>0.4112925725337107</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5167306709751642</v>
+        <v>0.3760133911757748</v>
       </c>
       <c r="E10">
-        <v>0.4806193785493136</v>
+        <v>0.140347055316294</v>
       </c>
       <c r="F10">
-        <v>10.99267803110536</v>
+        <v>9.670990792991972</v>
       </c>
       <c r="G10">
-        <v>0.000652805172848971</v>
+        <v>0.0005909802614306274</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.576206632076662</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.461713104728403</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.7360937067576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7.477458407203869</v>
+      </c>
+      <c r="N10">
+        <v>1.791904241024497</v>
+      </c>
+      <c r="O10">
+        <v>8.329791586856402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.391302984026481</v>
+        <v>0.441232388661561</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5682226301704816</v>
+        <v>0.4212824349977353</v>
       </c>
       <c r="E11">
-        <v>0.528259401889045</v>
+        <v>0.1479148996231743</v>
       </c>
       <c r="F11">
-        <v>12.07743566723929</v>
+        <v>10.73585577216585</v>
       </c>
       <c r="G11">
-        <v>0.0006374598838538488</v>
+        <v>0.0005742178234562356</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.020001874826306</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.603733705526864</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.898952441737492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8.201137548189138</v>
+      </c>
+      <c r="N11">
+        <v>1.860132334282582</v>
+      </c>
+      <c r="O11">
+        <v>9.252554440552586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.433619992721646</v>
+        <v>0.4526469796604005</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5887973423577364</v>
+        <v>0.4397389516228714</v>
       </c>
       <c r="E12">
-        <v>0.5474390143796342</v>
+        <v>0.1508437965973499</v>
       </c>
       <c r="F12">
-        <v>12.50854535448417</v>
+        <v>11.16531034495932</v>
       </c>
       <c r="G12">
-        <v>0.0006315112720390177</v>
+        <v>0.000567633320595144</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.19524811969336</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.659751940380744</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.962915024812531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8.488411567844281</v>
+      </c>
+      <c r="N12">
+        <v>1.88611885904038</v>
+      </c>
+      <c r="O12">
+        <v>9.624976716332952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.424453076452522</v>
+        <v>0.4501849160322138</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5843126156042615</v>
+        <v>0.4356965158663826</v>
       </c>
       <c r="E13">
-        <v>0.543250640785871</v>
+        <v>0.1502094860191754</v>
       </c>
       <c r="F13">
-        <v>12.41468646047019</v>
+        <v>11.07147944023467</v>
       </c>
       <c r="G13">
-        <v>0.0006327995212266367</v>
+        <v>0.000569063842080756</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.157146214375615</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.647575980051727</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.949025759984323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8.425864906613356</v>
+      </c>
+      <c r="N13">
+        <v>1.880516406027596</v>
+      </c>
+      <c r="O13">
+        <v>9.543593043582206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.394760955713338</v>
+        <v>0.4421698239404463</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5698917393880834</v>
+        <v>0.4227713650701617</v>
       </c>
       <c r="E14">
-        <v>0.5298120159611415</v>
+        <v>0.1481543499573412</v>
       </c>
       <c r="F14">
-        <v>12.1124579789772</v>
+        <v>10.77060094288288</v>
       </c>
       <c r="G14">
-        <v>0.0006369735943079124</v>
+        <v>0.0005736815229896607</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.034261405948598</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.608293315306895</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.904164575947107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8.224475587910206</v>
+      </c>
+      <c r="N14">
+        <v>1.862267557759537</v>
+      </c>
+      <c r="O14">
+        <v>9.282679449249969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.376723688116329</v>
+        <v>0.43727091995666</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5612089150706652</v>
+        <v>0.4150414100441964</v>
       </c>
       <c r="E15">
-        <v>0.5217413645137938</v>
+        <v>0.1469049723271212</v>
       </c>
       <c r="F15">
-        <v>11.93017450486678</v>
+        <v>10.59002541303113</v>
       </c>
       <c r="G15">
-        <v>0.0006395106420086247</v>
+        <v>0.0005764757911756596</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.959998273222197</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.584544296094961</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.877005471976005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8.102998308067356</v>
+      </c>
+      <c r="N15">
+        <v>1.851107646023962</v>
+      </c>
+      <c r="O15">
+        <v>9.126126930950477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.275430496925878</v>
+        <v>0.4093457818315187</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5134984077418778</v>
+        <v>0.3732119706358645</v>
       </c>
       <c r="E16">
-        <v>0.4776440103648341</v>
+        <v>0.1398592887065071</v>
       </c>
       <c r="F16">
-        <v>10.92430156630081</v>
+        <v>9.60454791237251</v>
       </c>
       <c r="G16">
-        <v>0.0006537917915765016</v>
+        <v>0.0005920482114141201</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.54808774545458</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.452708233347224</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.725734506524688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7.431751783521207</v>
+      </c>
+      <c r="N16">
+        <v>1.787468773344955</v>
+      </c>
+      <c r="O16">
+        <v>8.272247467973898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.214920742735529</v>
+        <v>0.3923342658625018</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4858143088770248</v>
+        <v>0.3493953047513259</v>
       </c>
       <c r="E17">
-        <v>0.452221504812286</v>
+        <v>0.1356128062048434</v>
       </c>
       <c r="F17">
-        <v>10.33725203274059</v>
+        <v>9.037067659595692</v>
       </c>
       <c r="G17">
-        <v>0.0006623644645826979</v>
+        <v>0.0006012836795457901</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.305915551167942</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.375129442622594</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.636327952028381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7.038644234551896</v>
+      </c>
+      <c r="N17">
+        <v>1.748738203658547</v>
+      </c>
+      <c r="O17">
+        <v>7.780923847892382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.180640440231741</v>
+        <v>0.382589181185196</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.470390589141914</v>
+        <v>0.3362572601873381</v>
       </c>
       <c r="E18">
-        <v>0.4380999058852666</v>
+        <v>0.133190317405294</v>
       </c>
       <c r="F18">
-        <v>10.0090739774727</v>
+        <v>8.722010693011157</v>
       </c>
       <c r="G18">
-        <v>0.0006672402736489962</v>
+        <v>0.0006065036727851969</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.169920031047781</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.331547417865565</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.585977157080904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6.818240850685243</v>
+      </c>
+      <c r="N18">
+        <v>1.726583445025796</v>
+      </c>
+      <c r="O18">
+        <v>7.508266359223938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.169117231768496</v>
+        <v>0.3792960671564316</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4652473103742807</v>
+        <v>0.3318959645317818</v>
       </c>
       <c r="E19">
-        <v>0.4333965881145616</v>
+        <v>0.1323729573902845</v>
       </c>
       <c r="F19">
-        <v>9.899457551194587</v>
+        <v>8.617104128202072</v>
       </c>
       <c r="G19">
-        <v>0.000668882876792211</v>
+        <v>0.000608257240164397</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.124393183161914</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.316955458210487</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.569099197999776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6.744502588645275</v>
+      </c>
+      <c r="N19">
+        <v>1.71910370821044</v>
+      </c>
+      <c r="O19">
+        <v>7.417496564212769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.221306389241988</v>
+        <v>0.3941409912980589</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4887079526174887</v>
+        <v>0.3518702983641901</v>
       </c>
       <c r="E20">
-        <v>0.4548739746836219</v>
+        <v>0.1360626378504968</v>
       </c>
       <c r="F20">
-        <v>10.39873194395432</v>
+        <v>9.096257880696243</v>
       </c>
       <c r="G20">
-        <v>0.0006614578674435029</v>
+        <v>0.0006003105588286236</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.331342527823807</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.383276758040282</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.645730788453918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7.079878105165704</v>
+      </c>
+      <c r="N20">
+        <v>1.752848645789612</v>
+      </c>
+      <c r="O20">
+        <v>7.832157842025396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.403450395815639</v>
+        <v>0.4445218123959194</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.574095485974226</v>
+        <v>0.4265277291197123</v>
       </c>
       <c r="E21">
-        <v>0.5337249061191187</v>
+        <v>0.1487559366436315</v>
       </c>
       <c r="F21">
-        <v>12.20062531192917</v>
+        <v>10.85817997007362</v>
       </c>
       <c r="G21">
-        <v>0.0006357517875905846</v>
+        <v>0.0005723325499940348</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.070141053034178</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.619765013610873</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.917273382968133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8.283226278893324</v>
+      </c>
+      <c r="N21">
+        <v>1.86762403734005</v>
+      </c>
+      <c r="O21">
+        <v>9.358617485568033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.528995678828949</v>
+        <v>0.4779094954223666</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6364013800893531</v>
+        <v>0.4833766980166416</v>
       </c>
       <c r="E22">
-        <v>0.5921872388674316</v>
+        <v>0.1574541948916952</v>
       </c>
       <c r="F22">
-        <v>13.50106676896195</v>
+        <v>12.17005861092133</v>
       </c>
       <c r="G22">
-        <v>0.0006181095534560921</v>
+        <v>0.0005525839296095566</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.596489302539936</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.787841198095037</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2.108567569559568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9.150647932335858</v>
+      </c>
+      <c r="N22">
+        <v>1.943464886955496</v>
+      </c>
+      <c r="O22">
+        <v>10.49692240977896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.461283575927268</v>
+        <v>0.4600410338212839</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6024258521948411</v>
+        <v>0.452092729745118</v>
       </c>
       <c r="E23">
-        <v>0.5601946369298361</v>
+        <v>0.152758241289547</v>
       </c>
       <c r="F23">
-        <v>12.79339301015955</v>
+        <v>11.45126300396109</v>
       </c>
       <c r="G23">
-        <v>0.0006276243327544162</v>
+        <v>0.0005633009475222332</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.310709973899804</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.696636701424339</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2.00494392105773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8.678276594642512</v>
+      </c>
+      <c r="N23">
+        <v>1.902932492752001</v>
+      </c>
+      <c r="O23">
+        <v>9.87304337754864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.21841787523212</v>
+        <v>0.3933240625625416</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4873982224154361</v>
+        <v>0.3507496538026089</v>
       </c>
       <c r="E24">
-        <v>0.4536732767816645</v>
+        <v>0.1358592119908018</v>
       </c>
       <c r="F24">
-        <v>10.37090819498709</v>
+        <v>9.069463640899244</v>
       </c>
       <c r="G24">
-        <v>0.0006618679009658778</v>
+        <v>0.000600750780239772</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.319837056319756</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.379590222942767</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.641476535385294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7.061219101021919</v>
+      </c>
+      <c r="N24">
+        <v>1.750989964317341</v>
+      </c>
+      <c r="O24">
+        <v>7.808964858966988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9760442970584222</v>
+        <v>0.322842692152463</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3820381763751328</v>
+        <v>0.2625751076708838</v>
       </c>
       <c r="E25">
-        <v>0.3575437320841601</v>
+        <v>0.1184031353872861</v>
       </c>
       <c r="F25">
-        <v>8.112949688053078</v>
+        <v>6.92762018226469</v>
       </c>
       <c r="G25">
-        <v>0.0006967695013516918</v>
+        <v>0.0006376968169519786</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.374448084964257</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.076519448647304</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.289614537298036</v>
+        <v>5.531649352691346</v>
+      </c>
+      <c r="N25">
+        <v>1.591703493450467</v>
+      </c>
+      <c r="O25">
+        <v>5.956971763544857</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2718309465602289</v>
+        <v>0.6954218141781041</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2073653211434419</v>
+        <v>0.01055980818500402</v>
       </c>
       <c r="E2">
-        <v>0.1057412677186278</v>
+        <v>0.03417676845501916</v>
       </c>
       <c r="F2">
-        <v>5.550866951520845</v>
+        <v>2.122523709326728</v>
       </c>
       <c r="G2">
-        <v>0.0006637448641679454</v>
+        <v>0.0008496111025185881</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.9893067086808713</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07751138317317441</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.187140998680405</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4404278198917808</v>
       </c>
       <c r="M2">
-        <v>4.504594314675344</v>
+        <v>0.2722024422488403</v>
       </c>
       <c r="N2">
-        <v>1.478651949608974</v>
+        <v>1.924956095284017</v>
       </c>
       <c r="O2">
-        <v>4.768613764149563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2376687418429384</v>
+        <v>0.6189711064052972</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1736229523587269</v>
+        <v>0.008943980383115502</v>
       </c>
       <c r="E3">
-        <v>0.09719068505100026</v>
+        <v>0.03100029417817218</v>
       </c>
       <c r="F3">
-        <v>4.694733796882019</v>
+        <v>2.037888550024618</v>
       </c>
       <c r="G3">
-        <v>0.0006811970912573885</v>
+        <v>0.0008566460103545235</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.9827050257024865</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07293332812420061</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.915139657212308</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3977801366052773</v>
       </c>
       <c r="M3">
-        <v>3.845770681985499</v>
+        <v>0.2439101474711158</v>
       </c>
       <c r="N3">
-        <v>1.404599290103221</v>
+        <v>1.969472307696797</v>
       </c>
       <c r="O3">
-        <v>4.030480474282797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2168568795488852</v>
+        <v>0.5726918601716591</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.154187912944991</v>
+        <v>0.008002500675491575</v>
       </c>
       <c r="E4">
-        <v>0.09194357910485351</v>
+        <v>0.02907442441219743</v>
       </c>
       <c r="F4">
-        <v>4.196186295290914</v>
+        <v>1.98907818550002</v>
       </c>
       <c r="G4">
-        <v>0.0006919308809876045</v>
+        <v>0.000861099483067245</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.9798620226846069</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07013649698266988</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.750764446877184</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3722030742014795</v>
       </c>
       <c r="M4">
-        <v>3.454057348012441</v>
+        <v>0.2268528307236579</v>
       </c>
       <c r="N4">
-        <v>1.360350387678409</v>
+        <v>1.998629952311433</v>
       </c>
       <c r="O4">
-        <v>3.600956680727336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.208412265954621</v>
+        <v>0.5539851275298417</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1465287972315679</v>
+        <v>0.007629844071413316</v>
       </c>
       <c r="E5">
-        <v>0.089805277125663</v>
+        <v>0.0282943817305199</v>
       </c>
       <c r="F5">
-        <v>3.998571390678364</v>
+        <v>1.969934851267467</v>
       </c>
       <c r="G5">
-        <v>0.0006963233142218743</v>
+        <v>0.0008629489552444998</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.9789952279917813</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06899886890300166</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.684370913674229</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3619204211651095</v>
       </c>
       <c r="M5">
-        <v>3.296998602890625</v>
+        <v>0.2199742475290414</v>
       </c>
       <c r="N5">
-        <v>1.342618311991515</v>
+        <v>2.010957276939486</v>
       </c>
       <c r="O5">
-        <v>3.430766255635348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2070121108234275</v>
+        <v>0.5508877038881224</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1452711794910613</v>
+        <v>0.007568581479848291</v>
       </c>
       <c r="E6">
-        <v>0.08945019711568136</v>
+        <v>0.02816510532243299</v>
       </c>
       <c r="F6">
-        <v>3.966059909627319</v>
+        <v>1.966799953645364</v>
       </c>
       <c r="G6">
-        <v>0.0006970541360305245</v>
+        <v>0.0008632581778702213</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.978868564631334</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06881005350989611</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.673379987626845</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3602211027446174</v>
       </c>
       <c r="M6">
-        <v>3.271057419363132</v>
+        <v>0.2188362524228999</v>
       </c>
       <c r="N6">
-        <v>1.339691806907041</v>
+        <v>2.013030742007473</v>
       </c>
       <c r="O6">
-        <v>3.402770209545992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2167428511977931</v>
+        <v>0.5724389752512025</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1540836362485862</v>
+        <v>0.007997432525733927</v>
       </c>
       <c r="E7">
-        <v>0.09191474211746353</v>
+        <v>0.02906388695502571</v>
       </c>
       <c r="F7">
-        <v>4.193500238492959</v>
+        <v>1.988817045030743</v>
       </c>
       <c r="G7">
-        <v>0.0006919900282962299</v>
+        <v>0.0008611242842068134</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.9798491675898262</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07012114784619072</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.749866740129676</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3720638474349158</v>
       </c>
       <c r="M7">
-        <v>3.451929575749816</v>
+        <v>0.2267597789769837</v>
       </c>
       <c r="N7">
-        <v>1.360110042629813</v>
+        <v>1.998794416813496</v>
       </c>
       <c r="O7">
-        <v>3.598643138821387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.260014729211349</v>
+        <v>0.6689155353344347</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1954232936984539</v>
+        <v>0.009991070331160756</v>
       </c>
       <c r="E8">
-        <v>0.1027916957974213</v>
+        <v>0.03307555933910322</v>
       </c>
       <c r="F8">
-        <v>5.24919360609519</v>
+        <v>2.092657608241041</v>
       </c>
       <c r="G8">
-        <v>0.0006697678433618435</v>
+        <v>0.0008520095139062352</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.9867713562300153</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07592903370436943</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.092763243714899</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4255885035624374</v>
       </c>
       <c r="M8">
-        <v>4.274337973447416</v>
+        <v>0.2623779065917411</v>
       </c>
       <c r="N8">
-        <v>1.452861339410433</v>
+        <v>1.939918235157791</v>
       </c>
       <c r="O8">
-        <v>4.508444285236493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3464253809770668</v>
+        <v>0.8640444810186239</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2903582800292099</v>
+        <v>0.0143888957024636</v>
       </c>
       <c r="E9">
-        <v>0.1242351378698281</v>
+        <v>0.04120628911490698</v>
       </c>
       <c r="F9">
-        <v>7.609807852664431</v>
+        <v>2.323597812557026</v>
       </c>
       <c r="G9">
-        <v>0.0006255195139567852</v>
+        <v>0.0008351526714144311</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.010565593348922</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08750214749555951</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.789624619946466</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.536014322646821</v>
       </c>
       <c r="M9">
-        <v>6.027290514860965</v>
+        <v>0.3350436873304545</v>
       </c>
       <c r="N9">
-        <v>1.644701040744621</v>
+        <v>1.839592244201356</v>
       </c>
       <c r="O9">
-        <v>6.546415993951598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4112925725337107</v>
+        <v>1.012074908741511</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3760133911757748</v>
+        <v>0.01805246953621875</v>
       </c>
       <c r="E10">
-        <v>0.140347055316294</v>
+        <v>0.0474486434050565</v>
       </c>
       <c r="F10">
-        <v>9.670990792991972</v>
+        <v>2.513371323673198</v>
       </c>
       <c r="G10">
-        <v>0.0005909802614306274</v>
+        <v>0.0008233183269424062</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.035209802459391</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.09622840631375951</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.32192323871277</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6214443861703671</v>
       </c>
       <c r="M10">
-        <v>7.477458407203869</v>
+        <v>0.3906459967754472</v>
       </c>
       <c r="N10">
-        <v>1.791904241024497</v>
+        <v>1.77609530277968</v>
       </c>
       <c r="O10">
-        <v>8.329791586856402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.441232388661561</v>
+        <v>1.080689517360071</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4212824349977353</v>
+        <v>0.0198476922905364</v>
       </c>
       <c r="E11">
-        <v>0.1479148996231743</v>
+        <v>0.05037429602100829</v>
       </c>
       <c r="F11">
-        <v>10.73585577216585</v>
+        <v>2.604925344117362</v>
       </c>
       <c r="G11">
-        <v>0.0005742178234562356</v>
+        <v>0.0008180370172258463</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.048206485961082</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1002750085981923</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.569836929558903</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6614833794361772</v>
       </c>
       <c r="M11">
-        <v>8.201137548189138</v>
+        <v>0.4165445170519035</v>
       </c>
       <c r="N11">
-        <v>1.860132334282582</v>
+        <v>1.749672486514399</v>
       </c>
       <c r="O11">
-        <v>9.252554440552586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4526469796604005</v>
+        <v>1.106878903533811</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4397389516228714</v>
+        <v>0.02054932522287345</v>
       </c>
       <c r="E12">
-        <v>0.1508437965973499</v>
+        <v>0.05149714396356408</v>
       </c>
       <c r="F12">
-        <v>11.16531034495932</v>
+        <v>2.640425285943635</v>
       </c>
       <c r="G12">
-        <v>0.000567633320595144</v>
+        <v>0.0008160502587456614</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.053406125793686</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1018210961310544</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.664669568918612</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6768365973393742</v>
       </c>
       <c r="M12">
-        <v>8.488411567844281</v>
+        <v>0.4264498515032855</v>
       </c>
       <c r="N12">
-        <v>1.88611885904038</v>
+        <v>1.740044087611892</v>
       </c>
       <c r="O12">
-        <v>9.624976716332952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4501849160322138</v>
+        <v>1.10122897213401</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4356965158663826</v>
+        <v>0.02039718808271829</v>
       </c>
       <c r="E13">
-        <v>0.1502094860191754</v>
+        <v>0.05125460803594351</v>
       </c>
       <c r="F13">
-        <v>11.07147944023467</v>
+        <v>2.632741459267493</v>
       </c>
       <c r="G13">
-        <v>0.000569063842080756</v>
+        <v>0.0008164775836020132</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.05227356150364</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1014874622878352</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.644201166342725</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6735211206527936</v>
       </c>
       <c r="M13">
-        <v>8.425864906613356</v>
+        <v>0.4243120065357004</v>
       </c>
       <c r="N13">
-        <v>1.880516406027596</v>
+        <v>1.742100556365642</v>
       </c>
       <c r="O13">
-        <v>9.543593043582206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4421698239404463</v>
+        <v>1.082839854066464</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4227713650701617</v>
+        <v>0.01990495819435623</v>
       </c>
       <c r="E14">
-        <v>0.1481543499573412</v>
+        <v>0.05046635739202543</v>
       </c>
       <c r="F14">
-        <v>10.77060094288288</v>
+        <v>2.607828821122965</v>
       </c>
       <c r="G14">
-        <v>0.0005736815229896607</v>
+        <v>0.0008178733111016971</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.04862856105099</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1004019146905115</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.577619012067089</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6627425284730606</v>
       </c>
       <c r="M14">
-        <v>8.224475587910206</v>
+        <v>0.4173574003482088</v>
       </c>
       <c r="N14">
-        <v>1.862267557759537</v>
+        <v>1.748872647789625</v>
       </c>
       <c r="O14">
-        <v>9.282679449249969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.43727091995666</v>
+        <v>1.071603610094286</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4150414100441964</v>
+        <v>0.01960640068257291</v>
       </c>
       <c r="E15">
-        <v>0.1469049723271212</v>
+        <v>0.04998556290975387</v>
       </c>
       <c r="F15">
-        <v>10.59002541303113</v>
+        <v>2.592679740205739</v>
       </c>
       <c r="G15">
-        <v>0.0005764757911756596</v>
+        <v>0.0008187298999878951</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.046432773902289</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.09973885735031374</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.536963531008098</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6561659416715599</v>
       </c>
       <c r="M15">
-        <v>8.102998308067356</v>
+        <v>0.4131106325548473</v>
       </c>
       <c r="N15">
-        <v>1.851107646023962</v>
+        <v>1.753070623054612</v>
       </c>
       <c r="O15">
-        <v>9.126126930950477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4093457818315187</v>
+        <v>1.00761836956525</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3732119706358645</v>
+        <v>0.01793801078350299</v>
       </c>
       <c r="E16">
-        <v>0.1398592887065071</v>
+        <v>0.04725939066972984</v>
       </c>
       <c r="F16">
-        <v>9.60454791237251</v>
+        <v>2.507499773466321</v>
       </c>
       <c r="G16">
-        <v>0.0005920482114141201</v>
+        <v>0.0008236654013044561</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.034398146727824</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.09596572052835839</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.305847850214263</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6188532587727877</v>
       </c>
       <c r="M16">
-        <v>7.431751783521207</v>
+        <v>0.3889665662533019</v>
       </c>
       <c r="N16">
-        <v>1.787468773344955</v>
+        <v>1.777873579144085</v>
       </c>
       <c r="O16">
-        <v>8.272247467973898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3923342658625018</v>
+        <v>0.9687078444332258</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3493953047513259</v>
+        <v>0.01694969272514157</v>
       </c>
       <c r="E17">
-        <v>0.1356128062048434</v>
+        <v>0.04561074882346361</v>
       </c>
       <c r="F17">
-        <v>9.037067659595692</v>
+        <v>2.456636687717463</v>
       </c>
       <c r="G17">
-        <v>0.0006012836795457901</v>
+        <v>0.0008267182977758081</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.027487198205485</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.09367253514751184</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.165627316824725</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.596279508235952</v>
       </c>
       <c r="M17">
-        <v>7.038644234551896</v>
+        <v>0.3743174594919623</v>
       </c>
       <c r="N17">
-        <v>1.748738203658547</v>
+        <v>1.793735863198307</v>
       </c>
       <c r="O17">
-        <v>7.780923847892382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.382589181185196</v>
+        <v>0.9464460193387083</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3362572601873381</v>
+        <v>0.01639312503773027</v>
       </c>
       <c r="E18">
-        <v>0.133190317405294</v>
+        <v>0.04467041268442351</v>
       </c>
       <c r="F18">
-        <v>8.722010693011157</v>
+        <v>2.427868216822588</v>
       </c>
       <c r="G18">
-        <v>0.0006065036727851969</v>
+        <v>0.0008284839622240087</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.023678911982927</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.09236062519988053</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.085511007440118</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5834049615068579</v>
       </c>
       <c r="M18">
-        <v>6.818240850685243</v>
+        <v>0.3659478726019216</v>
       </c>
       <c r="N18">
-        <v>1.726583445025796</v>
+        <v>1.803089662226867</v>
       </c>
       <c r="O18">
-        <v>7.508266359223938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3792960671564316</v>
+        <v>0.9389282249457267</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3318959645317818</v>
+        <v>0.01620662774246284</v>
       </c>
       <c r="E19">
-        <v>0.1323729573902845</v>
+        <v>0.04435331678875976</v>
       </c>
       <c r="F19">
-        <v>8.617104128202072</v>
+        <v>2.418209004981676</v>
       </c>
       <c r="G19">
-        <v>0.000608257240164397</v>
+        <v>0.0008290834994094795</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.022417509308816</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.09191757327351979</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.058473296897205</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5790639911541859</v>
       </c>
       <c r="M19">
-        <v>6.744502588645275</v>
+        <v>0.3631234027141232</v>
       </c>
       <c r="N19">
-        <v>1.71910370821044</v>
+        <v>1.806295569338431</v>
       </c>
       <c r="O19">
-        <v>7.417496564212769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3941409912980589</v>
+        <v>0.9728375128792095</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3518702983641901</v>
+        <v>0.01705364788545793</v>
       </c>
       <c r="E20">
-        <v>0.1360626378504968</v>
+        <v>0.04578541209789755</v>
       </c>
       <c r="F20">
-        <v>9.096257880696243</v>
+        <v>2.462000238118236</v>
       </c>
       <c r="G20">
-        <v>0.0006003105588286236</v>
+        <v>0.0008263923165301159</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.028205479279158</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.09391589870431716</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.18049782359725</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5986710594312115</v>
       </c>
       <c r="M20">
-        <v>7.079878105165704</v>
+        <v>0.3758709888694227</v>
       </c>
       <c r="N20">
-        <v>1.752848645789612</v>
+        <v>1.792023306656802</v>
       </c>
       <c r="O20">
-        <v>7.832157842025396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4445218123959194</v>
+        <v>1.088235382861143</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4265277291197123</v>
+        <v>0.02004891725330893</v>
       </c>
       <c r="E21">
-        <v>0.1487559366436315</v>
+        <v>0.05069745718687635</v>
       </c>
       <c r="F21">
-        <v>10.85817997007362</v>
+        <v>2.615123059144864</v>
       </c>
       <c r="G21">
-        <v>0.0005723325499940348</v>
+        <v>0.0008174630079571727</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.04969145914216</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1007203710349636</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.597148888304844</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6659030819022433</v>
       </c>
       <c r="M21">
-        <v>8.283226278893324</v>
+        <v>0.4193973791167735</v>
       </c>
       <c r="N21">
-        <v>1.86762403734005</v>
+        <v>1.74687308175433</v>
       </c>
       <c r="O21">
-        <v>9.358617485568033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4779094954223666</v>
+        <v>1.164870750232524</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4833766980166416</v>
+        <v>0.02213554613579305</v>
       </c>
       <c r="E22">
-        <v>0.1574541948916952</v>
+        <v>0.05399644664167269</v>
       </c>
       <c r="F22">
-        <v>12.17005861092133</v>
+        <v>2.720080712860096</v>
       </c>
       <c r="G22">
-        <v>0.0005525839296095566</v>
+        <v>0.0008117030652979919</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.065366072202266</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.105248968702</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.875076856152702</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7109702500539754</v>
       </c>
       <c r="M22">
-        <v>9.150647932335858</v>
+        <v>0.4484223586435547</v>
       </c>
       <c r="N22">
-        <v>1.943464886955496</v>
+        <v>1.719576869680097</v>
       </c>
       <c r="O22">
-        <v>10.49692240977896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4600410338212839</v>
+        <v>1.123849472052655</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.452092729745118</v>
+        <v>0.02100885431025645</v>
       </c>
       <c r="E23">
-        <v>0.152758241289547</v>
+        <v>0.05222665368947865</v>
       </c>
       <c r="F23">
-        <v>11.45126300396109</v>
+        <v>2.663587754899552</v>
       </c>
       <c r="G23">
-        <v>0.0005633009475222332</v>
+        <v>0.0008147708596831584</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.056843293588436</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1028235525032422</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.726182717879794</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6868059842819179</v>
       </c>
       <c r="M23">
-        <v>8.678276594642512</v>
+        <v>0.4328743104120534</v>
       </c>
       <c r="N23">
-        <v>1.902932492752001</v>
+        <v>1.733934631491508</v>
       </c>
       <c r="O23">
-        <v>9.87304337754864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3933240625625416</v>
+        <v>0.9709701540027424</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3507496538026089</v>
+        <v>0.017006613780012</v>
       </c>
       <c r="E24">
-        <v>0.1358592119908018</v>
+        <v>0.04570642369451861</v>
       </c>
       <c r="F24">
-        <v>9.069463640899244</v>
+        <v>2.459573908340403</v>
       </c>
       <c r="G24">
-        <v>0.000600750780239772</v>
+        <v>0.0008265396598348102</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.027880232329615</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0938058540754696</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.173773324441527</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.597589518703856</v>
       </c>
       <c r="M24">
-        <v>7.061219101021919</v>
+        <v>0.3751684759169081</v>
       </c>
       <c r="N24">
-        <v>1.750989964317341</v>
+        <v>1.792796825219142</v>
       </c>
       <c r="O24">
-        <v>7.808964858966988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.322842692152463</v>
+        <v>0.8105181411970364</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2625751076708838</v>
+        <v>0.01313389514434959</v>
       </c>
       <c r="E25">
-        <v>0.1184031353872861</v>
+        <v>0.03896802786883136</v>
       </c>
       <c r="F25">
-        <v>6.92762018226469</v>
+        <v>2.257860853324502</v>
       </c>
       <c r="G25">
-        <v>0.0006376968169519786</v>
+        <v>0.000839610856632353</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.002943153766601</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08434082845985102</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.597959173647354</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5054614926155381</v>
       </c>
       <c r="M25">
-        <v>5.531649352691346</v>
+        <v>0.3150352563274552</v>
       </c>
       <c r="N25">
-        <v>1.591703493450467</v>
+        <v>1.865016776150654</v>
       </c>
       <c r="O25">
-        <v>5.956971763544857</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6954218141781041</v>
+        <v>0.8466608812632046</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01055980818500402</v>
+        <v>0.006463761177446514</v>
       </c>
       <c r="E2">
-        <v>0.03417676845501916</v>
+        <v>0.03949444271920299</v>
       </c>
       <c r="F2">
-        <v>2.122523709326728</v>
+        <v>3.709721482487893</v>
       </c>
       <c r="G2">
-        <v>0.0008496111025185881</v>
+        <v>0.002622727708114525</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9893067086808713</v>
+        <v>1.972153441308784</v>
       </c>
       <c r="J2">
-        <v>0.07751138317317441</v>
+        <v>0.09511000923780699</v>
       </c>
       <c r="K2">
-        <v>2.187140998680405</v>
+        <v>1.644227619465426</v>
       </c>
       <c r="L2">
-        <v>0.4404278198917808</v>
+        <v>0.5773587323675571</v>
       </c>
       <c r="M2">
-        <v>0.2722024422488403</v>
+        <v>0.3440403399328851</v>
       </c>
       <c r="N2">
-        <v>1.924956095284017</v>
+        <v>3.698830920109231</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6189711064052972</v>
+        <v>0.831528153963859</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.008943980383115502</v>
+        <v>0.005874905053349977</v>
       </c>
       <c r="E3">
-        <v>0.03100029417817218</v>
+        <v>0.03843302258560932</v>
       </c>
       <c r="F3">
-        <v>2.037888550024618</v>
+        <v>3.70566510450827</v>
       </c>
       <c r="G3">
-        <v>0.0008566460103545235</v>
+        <v>0.002627270761670938</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9827050257024865</v>
+        <v>1.977860229400086</v>
       </c>
       <c r="J3">
-        <v>0.07293332812420061</v>
+        <v>0.09350685089080812</v>
       </c>
       <c r="K3">
-        <v>1.915139657212308</v>
+        <v>1.582137032750126</v>
       </c>
       <c r="L3">
-        <v>0.3977801366052773</v>
+        <v>0.5699169746221173</v>
       </c>
       <c r="M3">
-        <v>0.2439101474711158</v>
+        <v>0.3387481161107466</v>
       </c>
       <c r="N3">
-        <v>1.969472307696797</v>
+        <v>3.718459829081922</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5726918601716591</v>
+        <v>0.8226512342064325</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.008002500675491575</v>
+        <v>0.005510988232860115</v>
       </c>
       <c r="E4">
-        <v>0.02907442441219743</v>
+        <v>0.03777000261431951</v>
       </c>
       <c r="F4">
-        <v>1.98907818550002</v>
+        <v>3.704672756443614</v>
       </c>
       <c r="G4">
-        <v>0.000861099483067245</v>
+        <v>0.002630209688482965</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9798620226846069</v>
+        <v>1.981985252370819</v>
       </c>
       <c r="J4">
-        <v>0.07013649698266988</v>
+        <v>0.09250253186694124</v>
       </c>
       <c r="K4">
-        <v>1.750764446877184</v>
+        <v>1.544977574468675</v>
       </c>
       <c r="L4">
-        <v>0.3722030742014795</v>
+        <v>0.5656368171855917</v>
       </c>
       <c r="M4">
-        <v>0.2268528307236579</v>
+        <v>0.3356690850260939</v>
       </c>
       <c r="N4">
-        <v>1.998629952311433</v>
+        <v>3.731368785670846</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5539851275298417</v>
+        <v>0.8191384072879373</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.007629844071413316</v>
+        <v>0.005362052504068515</v>
       </c>
       <c r="E5">
-        <v>0.0282943817305199</v>
+        <v>0.03749693777881546</v>
       </c>
       <c r="F5">
-        <v>1.969934851267467</v>
+        <v>3.704645147898887</v>
       </c>
       <c r="G5">
-        <v>0.0008629489552444998</v>
+        <v>0.00263144503192851</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9789952279917813</v>
+        <v>1.983822482027676</v>
       </c>
       <c r="J5">
-        <v>0.06899886890300166</v>
+        <v>0.09208820326718126</v>
       </c>
       <c r="K5">
-        <v>1.684370913674229</v>
+        <v>1.530077137314606</v>
       </c>
       <c r="L5">
-        <v>0.3619204211651095</v>
+        <v>0.5639653387256658</v>
       </c>
       <c r="M5">
-        <v>0.2199742475290414</v>
+        <v>0.334457280438027</v>
       </c>
       <c r="N5">
-        <v>2.010957276939486</v>
+        <v>3.736844720809792</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5508877038881224</v>
+        <v>0.8185614316892611</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007568581479848291</v>
+        <v>0.005337282104758145</v>
       </c>
       <c r="E6">
-        <v>0.02816510532243299</v>
+        <v>0.03745142063596063</v>
       </c>
       <c r="F6">
-        <v>1.966799953645364</v>
+        <v>3.704663321124713</v>
       </c>
       <c r="G6">
-        <v>0.0008632581778702213</v>
+        <v>0.002631652440597862</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.978868564631334</v>
+        <v>1.984136992252658</v>
       </c>
       <c r="J6">
-        <v>0.06881005350989611</v>
+        <v>0.09201909757176097</v>
       </c>
       <c r="K6">
-        <v>1.673379987626845</v>
+        <v>1.52761756349264</v>
       </c>
       <c r="L6">
-        <v>0.3602211027446174</v>
+        <v>0.5636921838113693</v>
       </c>
       <c r="M6">
-        <v>0.2188362524228999</v>
+        <v>0.3342586559887764</v>
       </c>
       <c r="N6">
-        <v>2.013030742007473</v>
+        <v>3.737767007196503</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5724389752512025</v>
+        <v>0.8226034350796567</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007997432525733927</v>
+        <v>0.005508982268430884</v>
       </c>
       <c r="E7">
-        <v>0.02906388695502571</v>
+        <v>0.03776633167015042</v>
       </c>
       <c r="F7">
-        <v>1.988817045030743</v>
+        <v>3.704670858509942</v>
       </c>
       <c r="G7">
-        <v>0.0008611242842068134</v>
+        <v>0.0026302261958791</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9798491675898262</v>
+        <v>1.982009397137951</v>
       </c>
       <c r="J7">
-        <v>0.07012114784619072</v>
+        <v>0.09249696462532242</v>
       </c>
       <c r="K7">
-        <v>1.749866740129676</v>
+        <v>1.544775640937871</v>
       </c>
       <c r="L7">
-        <v>0.3720638474349158</v>
+        <v>0.5656139805721949</v>
       </c>
       <c r="M7">
-        <v>0.2267597789769837</v>
+        <v>0.3356525683044005</v>
       </c>
       <c r="N7">
-        <v>1.998794416813496</v>
+        <v>3.731441763793399</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6689155353344347</v>
+        <v>0.8413572474229341</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009991070331160756</v>
+        <v>0.006261186021649934</v>
       </c>
       <c r="E8">
-        <v>0.03307555933910322</v>
+        <v>0.0391307889839112</v>
       </c>
       <c r="F8">
-        <v>2.092657608241041</v>
+        <v>3.708011878501651</v>
       </c>
       <c r="G8">
-        <v>0.0008520095139062352</v>
+        <v>0.002624263202253002</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9867713562300153</v>
+        <v>1.973992295859958</v>
       </c>
       <c r="J8">
-        <v>0.07592903370436943</v>
+        <v>0.0945613624878554</v>
       </c>
       <c r="K8">
-        <v>2.092763243714899</v>
+        <v>1.622618495376088</v>
       </c>
       <c r="L8">
-        <v>0.4255885035624374</v>
+        <v>0.5747328172732864</v>
       </c>
       <c r="M8">
-        <v>0.2623779065917411</v>
+        <v>0.3421802524385633</v>
       </c>
       <c r="N8">
-        <v>1.939918235157791</v>
+        <v>3.705421154036245</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8640444810186239</v>
+        <v>0.8814119754782439</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0143888957024636</v>
+        <v>0.007719596626749592</v>
       </c>
       <c r="E9">
-        <v>0.04120628911490698</v>
+        <v>0.04171852375276508</v>
       </c>
       <c r="F9">
-        <v>2.323597812557026</v>
+        <v>3.726455299446769</v>
       </c>
       <c r="G9">
-        <v>0.0008351526714144311</v>
+        <v>0.002613750302334341</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.010565593348922</v>
+        <v>1.963195546226267</v>
       </c>
       <c r="J9">
-        <v>0.08750214749555951</v>
+        <v>0.09845300290917436</v>
       </c>
       <c r="K9">
-        <v>2.789624619946466</v>
+        <v>1.782938254467524</v>
       </c>
       <c r="L9">
-        <v>0.536014322646821</v>
+        <v>0.5949096345426454</v>
       </c>
       <c r="M9">
-        <v>0.3350436873304545</v>
+        <v>0.3563310959780424</v>
       </c>
       <c r="N9">
-        <v>1.839592244201356</v>
+        <v>3.661192484055903</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.012074908741511</v>
+        <v>0.9128279269003485</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01805246953621875</v>
+        <v>0.008783840036880264</v>
       </c>
       <c r="E10">
-        <v>0.0474486434050565</v>
+        <v>0.04356862440401166</v>
       </c>
       <c r="F10">
-        <v>2.513371323673198</v>
+        <v>3.74726669226537</v>
       </c>
       <c r="G10">
-        <v>0.0008233183269424062</v>
+        <v>0.002606738454707907</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.035209802459391</v>
+        <v>1.958262980676501</v>
       </c>
       <c r="J10">
-        <v>0.09622840631375951</v>
+        <v>0.1012194345157198</v>
       </c>
       <c r="K10">
-        <v>3.32192323871277</v>
+        <v>1.905441157707855</v>
       </c>
       <c r="L10">
-        <v>0.6214443861703671</v>
+        <v>0.611136238698208</v>
       </c>
       <c r="M10">
-        <v>0.3906459967754472</v>
+        <v>0.3675495969078</v>
       </c>
       <c r="N10">
-        <v>1.77609530277968</v>
+        <v>3.632841482287205</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.080689517360071</v>
+        <v>0.9275494708644771</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0198476922905364</v>
+        <v>0.009267053524954605</v>
       </c>
       <c r="E11">
-        <v>0.05037429602100829</v>
+        <v>0.0443997362594768</v>
       </c>
       <c r="F11">
-        <v>2.604925344117362</v>
+        <v>3.758314051646167</v>
       </c>
       <c r="G11">
-        <v>0.0008180370172258463</v>
+        <v>0.00260370154507461</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.048206485961082</v>
+        <v>1.9566700341542</v>
       </c>
       <c r="J11">
-        <v>0.1002750085981923</v>
+        <v>0.1024584145074101</v>
       </c>
       <c r="K11">
-        <v>3.569836929558903</v>
+        <v>1.962204617982025</v>
       </c>
       <c r="L11">
-        <v>0.6614833794361772</v>
+        <v>0.6188237225423592</v>
       </c>
       <c r="M11">
-        <v>0.4165445170519035</v>
+        <v>0.3728315242343285</v>
       </c>
       <c r="N11">
-        <v>1.749672486514399</v>
+        <v>3.62084371839552</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.106878903533811</v>
+        <v>0.9331857545505784</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02054932522287345</v>
+        <v>0.009449952901633196</v>
       </c>
       <c r="E12">
-        <v>0.05149714396356408</v>
+        <v>0.04471298757166586</v>
       </c>
       <c r="F12">
-        <v>2.640425285943635</v>
+        <v>3.762724768523029</v>
       </c>
       <c r="G12">
-        <v>0.0008160502587456614</v>
+        <v>0.002602573396360965</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.053406125793686</v>
+        <v>1.956160381249859</v>
       </c>
       <c r="J12">
-        <v>0.1018210961310544</v>
+        <v>0.1029248264338065</v>
       </c>
       <c r="K12">
-        <v>3.664669568918612</v>
+        <v>1.983848959577529</v>
       </c>
       <c r="L12">
-        <v>0.6768365973393742</v>
+        <v>0.6217787978199709</v>
       </c>
       <c r="M12">
-        <v>0.4264498515032855</v>
+        <v>0.3748572889537272</v>
       </c>
       <c r="N12">
-        <v>1.740044087611892</v>
+        <v>3.616429826136823</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.10122897213401</v>
+        <v>0.9319691473927492</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02039718808271829</v>
+        <v>0.009410565162550455</v>
       </c>
       <c r="E13">
-        <v>0.05125460803594351</v>
+        <v>0.04464558818261111</v>
       </c>
       <c r="F13">
-        <v>2.632741459267493</v>
+        <v>3.761764729888966</v>
       </c>
       <c r="G13">
-        <v>0.0008164775836020132</v>
+        <v>0.002602815393006184</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.05227356150364</v>
+        <v>1.956265983523373</v>
       </c>
       <c r="J13">
-        <v>0.1014874622878352</v>
+        <v>0.1028244985412776</v>
       </c>
       <c r="K13">
-        <v>3.644201166342725</v>
+        <v>1.979180821500279</v>
       </c>
       <c r="L13">
-        <v>0.6735211206527936</v>
+        <v>0.6211404128890479</v>
       </c>
       <c r="M13">
-        <v>0.4243120065357004</v>
+        <v>0.3744198661385667</v>
       </c>
       <c r="N13">
-        <v>1.742100556365642</v>
+        <v>3.617374680201948</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.082839854066464</v>
+        <v>0.9280119394829853</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01990495819435623</v>
+        <v>0.009282102151598082</v>
       </c>
       <c r="E14">
-        <v>0.05046635739202543</v>
+        <v>0.04442553692803841</v>
       </c>
       <c r="F14">
-        <v>2.607828821122965</v>
+        <v>3.758672367526756</v>
       </c>
       <c r="G14">
-        <v>0.0008178733111016971</v>
+        <v>0.002603608294073221</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.04862856105099</v>
+        <v>1.956626229800271</v>
       </c>
       <c r="J14">
-        <v>0.1004019146905115</v>
+        <v>0.1024968416470955</v>
       </c>
       <c r="K14">
-        <v>3.577619012067089</v>
+        <v>1.963982318390549</v>
       </c>
       <c r="L14">
-        <v>0.6627425284730606</v>
+        <v>0.6190659566849206</v>
       </c>
       <c r="M14">
-        <v>0.4173574003482088</v>
+        <v>0.3729976721553072</v>
       </c>
       <c r="N14">
-        <v>1.748872647789625</v>
+        <v>3.620477990913372</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.071603610094286</v>
+        <v>0.925596042200624</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01960640068257291</v>
+        <v>0.009203405480068483</v>
       </c>
       <c r="E15">
-        <v>0.04998556290975387</v>
+        <v>0.04429055853338326</v>
       </c>
       <c r="F15">
-        <v>2.592679740205739</v>
+        <v>3.756807813311568</v>
       </c>
       <c r="G15">
-        <v>0.0008187298999878951</v>
+        <v>0.00260409681274688</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.046432773902289</v>
+        <v>1.956859074426802</v>
       </c>
       <c r="J15">
-        <v>0.09973885735031374</v>
+        <v>0.1022957836816545</v>
       </c>
       <c r="K15">
-        <v>3.536963531008098</v>
+        <v>1.954692240461156</v>
       </c>
       <c r="L15">
-        <v>0.6561659416715599</v>
+        <v>0.6178010214859597</v>
       </c>
       <c r="M15">
-        <v>0.4131106325548473</v>
+        <v>0.3721298709847076</v>
       </c>
       <c r="N15">
-        <v>1.753070623054612</v>
+        <v>3.622395712841438</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.00761836956525</v>
+        <v>0.9118744702843173</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01793801078350299</v>
+        <v>0.008752246611187786</v>
       </c>
       <c r="E16">
-        <v>0.04725939066972984</v>
+        <v>0.04351410111087617</v>
       </c>
       <c r="F16">
-        <v>2.507499773466321</v>
+        <v>3.746576526216529</v>
       </c>
       <c r="G16">
-        <v>0.0008236654013044561</v>
+        <v>0.002606939989385349</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.034398146727824</v>
+        <v>1.958380178023887</v>
       </c>
       <c r="J16">
-        <v>0.09596572052835839</v>
+        <v>0.1011380755127824</v>
       </c>
       <c r="K16">
-        <v>3.305847850214263</v>
+        <v>1.901752404541185</v>
       </c>
       <c r="L16">
-        <v>0.6188532587727877</v>
+        <v>0.6106399994827427</v>
       </c>
       <c r="M16">
-        <v>0.3889665662533019</v>
+        <v>0.3672079983042806</v>
       </c>
       <c r="N16">
-        <v>1.777873579144085</v>
+        <v>3.633643667112565</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9687078444332258</v>
+        <v>0.9035667058525974</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01694969272514157</v>
+        <v>0.008475275066334831</v>
       </c>
       <c r="E17">
-        <v>0.04561074882346361</v>
+        <v>0.04303510544073141</v>
       </c>
       <c r="F17">
-        <v>2.456636687717463</v>
+        <v>3.740704744798023</v>
       </c>
       <c r="G17">
-        <v>0.0008267182977758081</v>
+        <v>0.002608723246013072</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.027487198205485</v>
+        <v>1.959480009927674</v>
       </c>
       <c r="J17">
-        <v>0.09367253514751184</v>
+        <v>0.1004228963845613</v>
       </c>
       <c r="K17">
-        <v>3.165627316824725</v>
+        <v>1.869541109687816</v>
       </c>
       <c r="L17">
-        <v>0.596279508235952</v>
+        <v>0.6063252979392928</v>
       </c>
       <c r="M17">
-        <v>0.3743174594919623</v>
+        <v>0.3642342792804669</v>
       </c>
       <c r="N17">
-        <v>1.793735863198307</v>
+        <v>3.640774304184035</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9464460193387083</v>
+        <v>0.898828817381883</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01639312503773027</v>
+        <v>0.008315879183374619</v>
       </c>
       <c r="E18">
-        <v>0.04467041268442351</v>
+        <v>0.04275860840850854</v>
       </c>
       <c r="F18">
-        <v>2.427868216822588</v>
+        <v>3.737476176553344</v>
       </c>
       <c r="G18">
-        <v>0.0008284839622240087</v>
+        <v>0.002609763318570657</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.023678911982927</v>
+        <v>1.960173872257101</v>
       </c>
       <c r="J18">
-        <v>0.09236062519988053</v>
+        <v>0.1000097080422222</v>
       </c>
       <c r="K18">
-        <v>3.085511007440118</v>
+        <v>1.851111549272275</v>
       </c>
       <c r="L18">
-        <v>0.5834049615068579</v>
+        <v>0.6038723901926772</v>
       </c>
       <c r="M18">
-        <v>0.3659478726019216</v>
+        <v>0.362540686914322</v>
       </c>
       <c r="N18">
-        <v>1.803089662226867</v>
+        <v>3.644960293967159</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9389282249457267</v>
+        <v>0.8972316184667477</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01620662774246284</v>
+        <v>0.008261893686579924</v>
       </c>
       <c r="E19">
-        <v>0.04435331678875976</v>
+        <v>0.04266481982751635</v>
       </c>
       <c r="F19">
-        <v>2.418209004981676</v>
+        <v>3.73640857964206</v>
       </c>
       <c r="G19">
-        <v>0.0008290834994094795</v>
+        <v>0.002610117944038315</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.022417509308816</v>
+        <v>1.960419326155268</v>
       </c>
       <c r="J19">
-        <v>0.09191757327351979</v>
+        <v>0.09986949301718084</v>
       </c>
       <c r="K19">
-        <v>3.058473296897205</v>
+        <v>1.844888359655727</v>
       </c>
       <c r="L19">
-        <v>0.5790639911541859</v>
+        <v>0.6030468232566903</v>
       </c>
       <c r="M19">
-        <v>0.3631234027141232</v>
+        <v>0.3619701551543741</v>
       </c>
       <c r="N19">
-        <v>1.806295569338431</v>
+        <v>3.646392131820704</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9728375128792095</v>
+        <v>0.9044468904268115</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01705364788545793</v>
+        <v>0.008504768038154253</v>
       </c>
       <c r="E20">
-        <v>0.04578541209789755</v>
+        <v>0.0430861976744854</v>
       </c>
       <c r="F20">
-        <v>2.462000238118236</v>
+        <v>3.741314412830832</v>
       </c>
       <c r="G20">
-        <v>0.0008263923165301159</v>
+        <v>0.002608531926871069</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.028205479279158</v>
+        <v>1.959356590228452</v>
       </c>
       <c r="J20">
-        <v>0.09391589870431716</v>
+        <v>0.1004992181835007</v>
       </c>
       <c r="K20">
-        <v>3.18049782359725</v>
+        <v>1.872959961938932</v>
       </c>
       <c r="L20">
-        <v>0.5986710594312115</v>
+        <v>0.6067816251712799</v>
       </c>
       <c r="M20">
-        <v>0.3758709888694227</v>
+        <v>0.3645490972318512</v>
       </c>
       <c r="N20">
-        <v>1.792023306656802</v>
+        <v>3.640006475602391</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.088235382861143</v>
+        <v>0.9291725993188891</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02004891725330893</v>
+        <v>0.009319836716414898</v>
       </c>
       <c r="E21">
-        <v>0.05069745718687635</v>
+        <v>0.04449021097773809</v>
       </c>
       <c r="F21">
-        <v>2.615123059144864</v>
+        <v>3.75957449904918</v>
       </c>
       <c r="G21">
-        <v>0.0008174630079571727</v>
+        <v>0.002603374807192865</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.04969145914216</v>
+        <v>1.956517877793807</v>
       </c>
       <c r="J21">
-        <v>0.1007203710349636</v>
+        <v>0.1025931570938781</v>
       </c>
       <c r="K21">
-        <v>3.597148888304844</v>
+        <v>1.968442434608278</v>
       </c>
       <c r="L21">
-        <v>0.6659030819022433</v>
+        <v>0.6196740808080108</v>
       </c>
       <c r="M21">
-        <v>0.4193973791167735</v>
+        <v>0.3734147103758332</v>
       </c>
       <c r="N21">
-        <v>1.74687308175433</v>
+        <v>3.619562960699042</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.164870750232524</v>
+        <v>0.9456909204958492</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02213554613579305</v>
+        <v>0.009852069875147862</v>
       </c>
       <c r="E22">
-        <v>0.05399644664167269</v>
+        <v>0.0453992487370396</v>
       </c>
       <c r="F22">
-        <v>2.720080712860096</v>
+        <v>3.772833576579231</v>
       </c>
       <c r="G22">
-        <v>0.0008117030652979919</v>
+        <v>0.002600131715355676</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.065366072202266</v>
+        <v>1.95520794680489</v>
       </c>
       <c r="J22">
-        <v>0.105248968702</v>
+        <v>0.1039455810327929</v>
       </c>
       <c r="K22">
-        <v>3.875076856152702</v>
+        <v>2.031715816461201</v>
       </c>
       <c r="L22">
-        <v>0.7109702500539754</v>
+        <v>0.6283564669515158</v>
       </c>
       <c r="M22">
-        <v>0.4484223586435547</v>
+        <v>0.3793581664683359</v>
       </c>
       <c r="N22">
-        <v>1.719576869680097</v>
+        <v>3.606956232360503</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.123849472052655</v>
+        <v>0.9368420702443814</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02100885431025645</v>
+        <v>0.009568033023519718</v>
       </c>
       <c r="E23">
-        <v>0.05222665368947865</v>
+        <v>0.04491484923384093</v>
       </c>
       <c r="F23">
-        <v>2.663587754899552</v>
+        <v>3.765635680333403</v>
       </c>
       <c r="G23">
-        <v>0.0008147708596831584</v>
+        <v>0.002601850995410644</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.056843293588436</v>
+        <v>1.955857195497778</v>
       </c>
       <c r="J23">
-        <v>0.1028235525032422</v>
+        <v>0.1032252259345015</v>
       </c>
       <c r="K23">
-        <v>3.726182717879794</v>
+        <v>1.997865930089745</v>
       </c>
       <c r="L23">
-        <v>0.6868059842819179</v>
+        <v>0.6236990505746434</v>
       </c>
       <c r="M23">
-        <v>0.4328743104120534</v>
+        <v>0.376172395609828</v>
       </c>
       <c r="N23">
-        <v>1.733934631491508</v>
+        <v>3.613615632056408</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9709701540027424</v>
+        <v>0.904048839483437</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.017006613780012</v>
+        <v>0.00849143477130454</v>
       </c>
       <c r="E24">
-        <v>0.04570642369451861</v>
+        <v>0.04306310235539712</v>
       </c>
       <c r="F24">
-        <v>2.459573908340403</v>
+        <v>3.741038323412496</v>
       </c>
       <c r="G24">
-        <v>0.0008265396598348102</v>
+        <v>0.002608618376070895</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.027880232329615</v>
+        <v>1.959412196533421</v>
       </c>
       <c r="J24">
-        <v>0.0938058540754696</v>
+        <v>0.1004647194011135</v>
       </c>
       <c r="K24">
-        <v>3.173773324441527</v>
+        <v>1.871414021190503</v>
       </c>
       <c r="L24">
-        <v>0.597589518703856</v>
+        <v>0.6065752334364163</v>
       </c>
       <c r="M24">
-        <v>0.3751684759169081</v>
+        <v>0.3644067180740294</v>
       </c>
       <c r="N24">
-        <v>1.792796825219142</v>
+        <v>3.640353341488989</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8105181411970364</v>
+        <v>0.870226260544797</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01313389514434959</v>
+        <v>0.007326542874832143</v>
       </c>
       <c r="E25">
-        <v>0.03896802786883136</v>
+        <v>0.04102763065728787</v>
       </c>
       <c r="F25">
-        <v>2.257860853324502</v>
+        <v>3.720191617287682</v>
       </c>
       <c r="G25">
-        <v>0.000839610856632353</v>
+        <v>0.00261646873619519</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.002943153766601</v>
+        <v>1.965589387443117</v>
       </c>
       <c r="J25">
-        <v>0.08434082845985102</v>
+        <v>0.09741669822220445</v>
       </c>
       <c r="K25">
-        <v>2.597959173647354</v>
+        <v>1.738742264864044</v>
       </c>
       <c r="L25">
-        <v>0.5054614926155381</v>
+        <v>0.5892052198230999</v>
       </c>
       <c r="M25">
-        <v>0.3150352563274552</v>
+        <v>0.3523585078118998</v>
       </c>
       <c r="N25">
-        <v>1.865016776150654</v>
+        <v>3.672429817011619</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8466608812632046</v>
+        <v>0.6954218141781325</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006463761177446514</v>
+        <v>0.01055980818500402</v>
       </c>
       <c r="E2">
-        <v>0.03949444271920299</v>
+        <v>0.03417676845501916</v>
       </c>
       <c r="F2">
-        <v>3.709721482487893</v>
+        <v>2.122523709326714</v>
       </c>
       <c r="G2">
-        <v>0.002622727708114525</v>
+        <v>0.0008496111025654773</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.972153441308784</v>
+        <v>0.9893067086808855</v>
       </c>
       <c r="J2">
-        <v>0.09511000923780699</v>
+        <v>0.07751138317311401</v>
       </c>
       <c r="K2">
-        <v>1.644227619465426</v>
+        <v>2.187140998680377</v>
       </c>
       <c r="L2">
-        <v>0.5773587323675571</v>
+        <v>0.4404278198917666</v>
       </c>
       <c r="M2">
-        <v>0.3440403399328851</v>
+        <v>0.2722024422488296</v>
       </c>
       <c r="N2">
-        <v>3.698830920109231</v>
+        <v>1.924956095284017</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.831528153963859</v>
+        <v>0.6189711064052119</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.005874905053349977</v>
+        <v>0.008943980383108396</v>
       </c>
       <c r="E3">
-        <v>0.03843302258560932</v>
+        <v>0.03100029417815442</v>
       </c>
       <c r="F3">
-        <v>3.70566510450827</v>
+        <v>2.037888550024618</v>
       </c>
       <c r="G3">
-        <v>0.002627270761670938</v>
+        <v>0.0008566460103828208</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.977860229400086</v>
+        <v>0.9827050257024652</v>
       </c>
       <c r="J3">
-        <v>0.09350685089080812</v>
+        <v>0.07293332812420772</v>
       </c>
       <c r="K3">
-        <v>1.582137032750126</v>
+        <v>1.915139657212336</v>
       </c>
       <c r="L3">
-        <v>0.5699169746221173</v>
+        <v>0.3977801366052915</v>
       </c>
       <c r="M3">
-        <v>0.3387481161107466</v>
+        <v>0.2439101474711229</v>
       </c>
       <c r="N3">
-        <v>3.718459829081922</v>
+        <v>1.969472307696719</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8226512342064325</v>
+        <v>0.5726918601714317</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.005510988232860115</v>
+        <v>0.00800250067548447</v>
       </c>
       <c r="E4">
-        <v>0.03777000261431951</v>
+        <v>0.02907442441222585</v>
       </c>
       <c r="F4">
-        <v>3.704672756443614</v>
+        <v>1.98907818550002</v>
       </c>
       <c r="G4">
-        <v>0.002630209688482965</v>
+        <v>0.0008610994830969831</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.981985252370819</v>
+        <v>0.9798620226845998</v>
       </c>
       <c r="J4">
-        <v>0.09250253186694124</v>
+        <v>0.07013649698266278</v>
       </c>
       <c r="K4">
-        <v>1.544977574468675</v>
+        <v>1.750764446877213</v>
       </c>
       <c r="L4">
-        <v>0.5656368171855917</v>
+        <v>0.3722030742015079</v>
       </c>
       <c r="M4">
-        <v>0.3356690850260939</v>
+        <v>0.2268528307236508</v>
       </c>
       <c r="N4">
-        <v>3.731368785670846</v>
+        <v>1.998629952311376</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8191384072879373</v>
+        <v>0.5539851275301544</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.005362052504068515</v>
+        <v>0.007629844071608716</v>
       </c>
       <c r="E5">
-        <v>0.03749693777881546</v>
+        <v>0.02829438173051813</v>
       </c>
       <c r="F5">
-        <v>3.704645147898887</v>
+        <v>1.969934851267467</v>
       </c>
       <c r="G5">
-        <v>0.00263144503192851</v>
+        <v>0.000862948955201461</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.983822482027676</v>
+        <v>0.9789952279918026</v>
       </c>
       <c r="J5">
-        <v>0.09208820326718126</v>
+        <v>0.06899886890299456</v>
       </c>
       <c r="K5">
-        <v>1.530077137314606</v>
+        <v>1.684370913674229</v>
       </c>
       <c r="L5">
-        <v>0.5639653387256658</v>
+        <v>0.3619204211651237</v>
       </c>
       <c r="M5">
-        <v>0.334457280438027</v>
+        <v>0.2199742475290343</v>
       </c>
       <c r="N5">
-        <v>3.736844720809792</v>
+        <v>2.010957276939493</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8185614316892611</v>
+        <v>0.5508877038881224</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005337282104758145</v>
+        <v>0.007568581479731051</v>
       </c>
       <c r="E6">
-        <v>0.03745142063596063</v>
+        <v>0.02816510532241878</v>
       </c>
       <c r="F6">
-        <v>3.704663321124713</v>
+        <v>1.966799953645364</v>
       </c>
       <c r="G6">
-        <v>0.002631652440597862</v>
+        <v>0.0008632581778591424</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.984136992252658</v>
+        <v>0.9788685646313411</v>
       </c>
       <c r="J6">
-        <v>0.09201909757176097</v>
+        <v>0.06881005350981084</v>
       </c>
       <c r="K6">
-        <v>1.52761756349264</v>
+        <v>1.673379987626788</v>
       </c>
       <c r="L6">
-        <v>0.5636921838113693</v>
+        <v>0.3602211027446742</v>
       </c>
       <c r="M6">
-        <v>0.3342586559887764</v>
+        <v>0.2188362524229177</v>
       </c>
       <c r="N6">
-        <v>3.737767007196503</v>
+        <v>2.013030742007473</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8226034350796567</v>
+        <v>0.572438975251373</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005508982268430884</v>
+        <v>0.007997432525542081</v>
       </c>
       <c r="E7">
-        <v>0.03776633167015042</v>
+        <v>0.02906388695500439</v>
       </c>
       <c r="F7">
-        <v>3.704670858509942</v>
+        <v>1.9888170450307</v>
       </c>
       <c r="G7">
-        <v>0.0026302261958791</v>
+        <v>0.0008611242842498181</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.982009397137951</v>
+        <v>0.9798491675898191</v>
       </c>
       <c r="J7">
-        <v>0.09249696462532242</v>
+        <v>0.07012114784610191</v>
       </c>
       <c r="K7">
-        <v>1.544775640937871</v>
+        <v>1.749866740129704</v>
       </c>
       <c r="L7">
-        <v>0.5656139805721949</v>
+        <v>0.3720638474348874</v>
       </c>
       <c r="M7">
-        <v>0.3356525683044005</v>
+        <v>0.2267597789769802</v>
       </c>
       <c r="N7">
-        <v>3.731441763793399</v>
+        <v>1.998794416813453</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8413572474229341</v>
+        <v>0.6689155353344063</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006261186021649934</v>
+        <v>0.009991070331157204</v>
       </c>
       <c r="E8">
-        <v>0.0391307889839112</v>
+        <v>0.03307555933908191</v>
       </c>
       <c r="F8">
-        <v>3.708011878501651</v>
+        <v>2.092657608241026</v>
       </c>
       <c r="G8">
-        <v>0.002624263202253002</v>
+        <v>0.0008520095139346091</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.973992295859958</v>
+        <v>0.9867713562300153</v>
       </c>
       <c r="J8">
-        <v>0.0945613624878554</v>
+        <v>0.07592903370441562</v>
       </c>
       <c r="K8">
-        <v>1.622618495376088</v>
+        <v>2.092763243714955</v>
       </c>
       <c r="L8">
-        <v>0.5747328172732864</v>
+        <v>0.4255885035624232</v>
       </c>
       <c r="M8">
-        <v>0.3421802524385633</v>
+        <v>0.2623779065917198</v>
       </c>
       <c r="N8">
-        <v>3.705421154036245</v>
+        <v>1.939918235157748</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8814119754782439</v>
+        <v>0.8640444810186239</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007719596626749592</v>
+        <v>0.0143888957024636</v>
       </c>
       <c r="E9">
-        <v>0.04171852375276508</v>
+        <v>0.0412062891149052</v>
       </c>
       <c r="F9">
-        <v>3.726455299446769</v>
+        <v>2.323597812557011</v>
       </c>
       <c r="G9">
-        <v>0.002613750302334341</v>
+        <v>0.0008351526712955171</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.963195546226267</v>
+        <v>1.010565593348936</v>
       </c>
       <c r="J9">
-        <v>0.09845300290917436</v>
+        <v>0.08750214749555951</v>
       </c>
       <c r="K9">
-        <v>1.782938254467524</v>
+        <v>2.789624619946409</v>
       </c>
       <c r="L9">
-        <v>0.5949096345426454</v>
+        <v>0.5360143226468068</v>
       </c>
       <c r="M9">
-        <v>0.3563310959780424</v>
+        <v>0.3350436873304545</v>
       </c>
       <c r="N9">
-        <v>3.661192484055903</v>
+        <v>1.839592244201356</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9128279269003485</v>
+        <v>1.012074908741511</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.008783840036880264</v>
+        <v>0.01805246953620809</v>
       </c>
       <c r="E10">
-        <v>0.04356862440401166</v>
+        <v>0.0474486434050565</v>
       </c>
       <c r="F10">
-        <v>3.74726669226537</v>
+        <v>2.513371323673169</v>
       </c>
       <c r="G10">
-        <v>0.002606738454707907</v>
+        <v>0.0008233183269405751</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.958262980676501</v>
+        <v>1.035209802459384</v>
       </c>
       <c r="J10">
-        <v>0.1012194345157198</v>
+        <v>0.0962284063137524</v>
       </c>
       <c r="K10">
-        <v>1.905441157707855</v>
+        <v>3.321923238712714</v>
       </c>
       <c r="L10">
-        <v>0.611136238698208</v>
+        <v>0.621444386170424</v>
       </c>
       <c r="M10">
-        <v>0.3675495969078</v>
+        <v>0.3906459967754472</v>
       </c>
       <c r="N10">
-        <v>3.632841482287205</v>
+        <v>1.776095302779666</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9275494708644771</v>
+        <v>1.080689517359986</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.009267053524954605</v>
+        <v>0.01984769229042627</v>
       </c>
       <c r="E11">
-        <v>0.0443997362594768</v>
+        <v>0.05037429602098875</v>
       </c>
       <c r="F11">
-        <v>3.758314051646167</v>
+        <v>2.604925344117305</v>
       </c>
       <c r="G11">
-        <v>0.00260370154507461</v>
+        <v>0.0008180370172248667</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.9566700341542</v>
+        <v>1.048206485961089</v>
       </c>
       <c r="J11">
-        <v>0.1024584145074101</v>
+        <v>0.1002750085983557</v>
       </c>
       <c r="K11">
-        <v>1.962204617982025</v>
+        <v>3.56983692955896</v>
       </c>
       <c r="L11">
-        <v>0.6188237225423592</v>
+        <v>0.6614833794361914</v>
       </c>
       <c r="M11">
-        <v>0.3728315242343285</v>
+        <v>0.4165445170518751</v>
       </c>
       <c r="N11">
-        <v>3.62084371839552</v>
+        <v>1.749672486514328</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9331857545505784</v>
+        <v>1.10687890353384</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.009449952901633196</v>
+        <v>0.02054932522274555</v>
       </c>
       <c r="E12">
-        <v>0.04471298757166586</v>
+        <v>0.05149714396357474</v>
       </c>
       <c r="F12">
-        <v>3.762724768523029</v>
+        <v>2.640425285943635</v>
       </c>
       <c r="G12">
-        <v>0.002602573396360965</v>
+        <v>0.0008160502587436537</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.956160381249859</v>
+        <v>1.053406125793693</v>
       </c>
       <c r="J12">
-        <v>0.1029248264338065</v>
+        <v>0.1018210961310864</v>
       </c>
       <c r="K12">
-        <v>1.983848959577529</v>
+        <v>3.664669568918555</v>
       </c>
       <c r="L12">
-        <v>0.6217787978199709</v>
+        <v>0.6768365973392747</v>
       </c>
       <c r="M12">
-        <v>0.3748572889537272</v>
+        <v>0.4264498515032855</v>
       </c>
       <c r="N12">
-        <v>3.616429826136823</v>
+        <v>1.740044087611864</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9319691473927492</v>
+        <v>1.101228972134209</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.009410565162550455</v>
+        <v>0.02039718808283197</v>
       </c>
       <c r="E13">
-        <v>0.04464558818261111</v>
+        <v>0.05125460803596837</v>
       </c>
       <c r="F13">
-        <v>3.761764729888966</v>
+        <v>2.632741459267478</v>
       </c>
       <c r="G13">
-        <v>0.002602815393006184</v>
+        <v>0.0008164775836002881</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.956265983523373</v>
+        <v>1.05227356150364</v>
       </c>
       <c r="J13">
-        <v>0.1028244985412776</v>
+        <v>0.1014874622879454</v>
       </c>
       <c r="K13">
-        <v>1.979180821500279</v>
+        <v>3.644201166342611</v>
       </c>
       <c r="L13">
-        <v>0.6211404128890479</v>
+        <v>0.6735211206527651</v>
       </c>
       <c r="M13">
-        <v>0.3744198661385667</v>
+        <v>0.4243120065357004</v>
       </c>
       <c r="N13">
-        <v>3.617374680201948</v>
+        <v>1.742100556365585</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9280119394829853</v>
+        <v>1.082839854066492</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.009282102151598082</v>
+        <v>0.01990495819446281</v>
       </c>
       <c r="E14">
-        <v>0.04442553692803841</v>
+        <v>0.05046635739200944</v>
       </c>
       <c r="F14">
-        <v>3.758672367526756</v>
+        <v>2.607828821122965</v>
       </c>
       <c r="G14">
-        <v>0.002603608294073221</v>
+        <v>0.0008178733111037622</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.956626229800271</v>
+        <v>1.04862856105099</v>
       </c>
       <c r="J14">
-        <v>0.1024968416470955</v>
+        <v>0.1004019146905186</v>
       </c>
       <c r="K14">
-        <v>1.963982318390549</v>
+        <v>3.577619012067032</v>
       </c>
       <c r="L14">
-        <v>0.6190659566849206</v>
+        <v>0.6627425284730037</v>
       </c>
       <c r="M14">
-        <v>0.3729976721553072</v>
+        <v>0.4173574003481946</v>
       </c>
       <c r="N14">
-        <v>3.620477990913372</v>
+        <v>1.748872647789625</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.925596042200624</v>
+        <v>1.071603610094343</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.009203405480068483</v>
+        <v>0.0196064006826866</v>
       </c>
       <c r="E15">
-        <v>0.04429055853338326</v>
+        <v>0.04998556290975209</v>
       </c>
       <c r="F15">
-        <v>3.756807813311568</v>
+        <v>2.592679740205739</v>
       </c>
       <c r="G15">
-        <v>0.00260409681274688</v>
+        <v>0.000818729899987547</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.956859074426802</v>
+        <v>1.046432773902282</v>
       </c>
       <c r="J15">
-        <v>0.1022957836816545</v>
+        <v>0.09973885735031018</v>
       </c>
       <c r="K15">
-        <v>1.954692240461156</v>
+        <v>3.536963531008155</v>
       </c>
       <c r="L15">
-        <v>0.6178010214859597</v>
+        <v>0.6561659416715031</v>
       </c>
       <c r="M15">
-        <v>0.3721298709847076</v>
+        <v>0.4131106325548473</v>
       </c>
       <c r="N15">
-        <v>3.622395712841438</v>
+        <v>1.753070623054626</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9118744702843173</v>
+        <v>1.007618369565279</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.008752246611187786</v>
+        <v>0.01793801078350299</v>
       </c>
       <c r="E16">
-        <v>0.04351410111087617</v>
+        <v>0.04725939066972984</v>
       </c>
       <c r="F16">
-        <v>3.746576526216529</v>
+        <v>2.507499773466336</v>
       </c>
       <c r="G16">
-        <v>0.002606939989385349</v>
+        <v>0.0008236654013040745</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.958380178023887</v>
+        <v>1.034398146727831</v>
       </c>
       <c r="J16">
-        <v>0.1011380755127824</v>
+        <v>0.09596572052834773</v>
       </c>
       <c r="K16">
-        <v>1.901752404541185</v>
+        <v>3.305847850214377</v>
       </c>
       <c r="L16">
-        <v>0.6106399994827427</v>
+        <v>0.6188532587727451</v>
       </c>
       <c r="M16">
-        <v>0.3672079983042806</v>
+        <v>0.3889665662532877</v>
       </c>
       <c r="N16">
-        <v>3.633643667112565</v>
+        <v>1.777873579144142</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9035667058525974</v>
+        <v>0.9687078444333963</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.008475275066334831</v>
+        <v>0.01694969272513447</v>
       </c>
       <c r="E17">
-        <v>0.04303510544073141</v>
+        <v>0.04561074882344407</v>
       </c>
       <c r="F17">
-        <v>3.740704744798023</v>
+        <v>2.456636687717463</v>
       </c>
       <c r="G17">
-        <v>0.002608723246013072</v>
+        <v>0.0008267182978874381</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.959480009927674</v>
+        <v>1.027487198205471</v>
       </c>
       <c r="J17">
-        <v>0.1004228963845613</v>
+        <v>0.09367253514760776</v>
       </c>
       <c r="K17">
-        <v>1.869541109687816</v>
+        <v>3.165627316824668</v>
       </c>
       <c r="L17">
-        <v>0.6063252979392928</v>
+        <v>0.5962795082358525</v>
       </c>
       <c r="M17">
-        <v>0.3642342792804669</v>
+        <v>0.3743174594919481</v>
       </c>
       <c r="N17">
-        <v>3.640774304184035</v>
+        <v>1.793735863198307</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.898828817381883</v>
+        <v>0.9464460193386799</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.008315879183374619</v>
+        <v>0.01639312503773027</v>
       </c>
       <c r="E18">
-        <v>0.04275860840850854</v>
+        <v>0.04467041268441818</v>
       </c>
       <c r="F18">
-        <v>3.737476176553344</v>
+        <v>2.427868216822603</v>
       </c>
       <c r="G18">
-        <v>0.002609763318570657</v>
+        <v>0.0008284839621111051</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.960173872257101</v>
+        <v>1.023678911982948</v>
       </c>
       <c r="J18">
-        <v>0.1000097080422222</v>
+        <v>0.09236062519987343</v>
       </c>
       <c r="K18">
-        <v>1.851111549272275</v>
+        <v>3.085511007440175</v>
       </c>
       <c r="L18">
-        <v>0.6038723901926772</v>
+        <v>0.5834049615068437</v>
       </c>
       <c r="M18">
-        <v>0.362540686914322</v>
+        <v>0.3659478726019074</v>
       </c>
       <c r="N18">
-        <v>3.644960293967159</v>
+        <v>1.803089662226853</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8972316184667477</v>
+        <v>0.9389282249457551</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.008261893686579924</v>
+        <v>0.01620662774246284</v>
       </c>
       <c r="E19">
-        <v>0.04266481982751635</v>
+        <v>0.04435331678877574</v>
       </c>
       <c r="F19">
-        <v>3.73640857964206</v>
+        <v>2.418209004981676</v>
       </c>
       <c r="G19">
-        <v>0.002610117944038315</v>
+        <v>0.000829083499409705</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.960419326155268</v>
+        <v>1.022417509308831</v>
       </c>
       <c r="J19">
-        <v>0.09986949301718084</v>
+        <v>0.09191757327356953</v>
       </c>
       <c r="K19">
-        <v>1.844888359655727</v>
+        <v>3.058473296897148</v>
       </c>
       <c r="L19">
-        <v>0.6030468232566903</v>
+        <v>0.5790639911541575</v>
       </c>
       <c r="M19">
-        <v>0.3619701551543741</v>
+        <v>0.3631234027141303</v>
       </c>
       <c r="N19">
-        <v>3.646392131820704</v>
+        <v>1.806295569338417</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9044468904268115</v>
+        <v>0.9728375128793516</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.008504768038154253</v>
+        <v>0.01705364788557873</v>
       </c>
       <c r="E20">
-        <v>0.0430861976744854</v>
+        <v>0.04578541209789755</v>
       </c>
       <c r="F20">
-        <v>3.741314412830832</v>
+        <v>2.462000238118264</v>
       </c>
       <c r="G20">
-        <v>0.002608531926871069</v>
+        <v>0.0008263923166392489</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.959356590228452</v>
+        <v>1.02820547927918</v>
       </c>
       <c r="J20">
-        <v>0.1004992181835007</v>
+        <v>0.09391589870426742</v>
       </c>
       <c r="K20">
-        <v>1.872959961938932</v>
+        <v>3.180497823597022</v>
       </c>
       <c r="L20">
-        <v>0.6067816251712799</v>
+        <v>0.5986710594312683</v>
       </c>
       <c r="M20">
-        <v>0.3645490972318512</v>
+        <v>0.3758709888694298</v>
       </c>
       <c r="N20">
-        <v>3.640006475602391</v>
+        <v>1.792023306656802</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9291725993188891</v>
+        <v>1.0882353828612</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.009319836716414898</v>
+        <v>0.02004891725341551</v>
       </c>
       <c r="E21">
-        <v>0.04449021097773809</v>
+        <v>0.0506974571868728</v>
       </c>
       <c r="F21">
-        <v>3.75957449904918</v>
+        <v>2.61512305914485</v>
       </c>
       <c r="G21">
-        <v>0.002603374807192865</v>
+        <v>0.000817463007956482</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.956517877793807</v>
+        <v>1.049691459142181</v>
       </c>
       <c r="J21">
-        <v>0.1025931570938781</v>
+        <v>0.1007203710349458</v>
       </c>
       <c r="K21">
-        <v>1.968442434608278</v>
+        <v>3.597148888304844</v>
       </c>
       <c r="L21">
-        <v>0.6196740808080108</v>
+        <v>0.6659030819021581</v>
       </c>
       <c r="M21">
-        <v>0.3734147103758332</v>
+        <v>0.4193973791167593</v>
       </c>
       <c r="N21">
-        <v>3.619562960699042</v>
+        <v>1.746873081754345</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9456909204958492</v>
+        <v>1.164870750232353</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009852069875147862</v>
+        <v>0.02213554613590318</v>
       </c>
       <c r="E22">
-        <v>0.0453992487370396</v>
+        <v>0.05399644664170111</v>
       </c>
       <c r="F22">
-        <v>3.772833576579231</v>
+        <v>2.72008071286011</v>
       </c>
       <c r="G22">
-        <v>0.002600131715355676</v>
+        <v>0.000811703065355166</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.95520794680489</v>
+        <v>1.065366072202274</v>
       </c>
       <c r="J22">
-        <v>0.1039455810327929</v>
+        <v>0.1052489687019929</v>
       </c>
       <c r="K22">
-        <v>2.031715816461201</v>
+        <v>3.875076856152759</v>
       </c>
       <c r="L22">
-        <v>0.6283564669515158</v>
+        <v>0.7109702500540322</v>
       </c>
       <c r="M22">
-        <v>0.3793581664683359</v>
+        <v>0.4484223586435547</v>
       </c>
       <c r="N22">
-        <v>3.606956232360503</v>
+        <v>1.719576869680139</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9368420702443814</v>
+        <v>1.123849472052854</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.009568033023519718</v>
+        <v>0.02100885431013921</v>
       </c>
       <c r="E23">
-        <v>0.04491484923384093</v>
+        <v>0.05222665368949109</v>
       </c>
       <c r="F23">
-        <v>3.765635680333403</v>
+        <v>2.663587754899552</v>
       </c>
       <c r="G23">
-        <v>0.002601850995410644</v>
+        <v>0.0008147708596830044</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.955857195497778</v>
+        <v>1.05684329358845</v>
       </c>
       <c r="J23">
-        <v>0.1032252259345015</v>
+        <v>0.1028235525032315</v>
       </c>
       <c r="K23">
-        <v>1.997865930089745</v>
+        <v>3.726182717879738</v>
       </c>
       <c r="L23">
-        <v>0.6236990505746434</v>
+        <v>0.6868059842819605</v>
       </c>
       <c r="M23">
-        <v>0.376172395609828</v>
+        <v>0.4328743104120605</v>
       </c>
       <c r="N23">
-        <v>3.613615632056408</v>
+        <v>1.733934631491451</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.904048839483437</v>
+        <v>0.970970154002714</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.00849143477130454</v>
+        <v>0.01700661377978818</v>
       </c>
       <c r="E24">
-        <v>0.04306310235539712</v>
+        <v>0.04570642369451861</v>
       </c>
       <c r="F24">
-        <v>3.741038323412496</v>
+        <v>2.459573908340403</v>
       </c>
       <c r="G24">
-        <v>0.002608618376070895</v>
+        <v>0.0008265396598343632</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.959412196533421</v>
+        <v>1.027880232329608</v>
       </c>
       <c r="J24">
-        <v>0.1004647194011135</v>
+        <v>0.09380585407557618</v>
       </c>
       <c r="K24">
-        <v>1.871414021190503</v>
+        <v>3.17377332444147</v>
       </c>
       <c r="L24">
-        <v>0.6065752334364163</v>
+        <v>0.5975895187039555</v>
       </c>
       <c r="M24">
-        <v>0.3644067180740294</v>
+        <v>0.3751684759169009</v>
       </c>
       <c r="N24">
-        <v>3.640353341488989</v>
+        <v>1.792796825219128</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.870226260544797</v>
+        <v>0.8105181411971216</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.007326542874832143</v>
+        <v>0.0131338951443567</v>
       </c>
       <c r="E25">
-        <v>0.04102763065728787</v>
+        <v>0.03896802786880471</v>
       </c>
       <c r="F25">
-        <v>3.720191617287682</v>
+        <v>2.257860853324502</v>
       </c>
       <c r="G25">
-        <v>0.00261646873619519</v>
+        <v>0.0008396108565335014</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.965589387443117</v>
+        <v>1.002943153766616</v>
       </c>
       <c r="J25">
-        <v>0.09741669822220445</v>
+        <v>0.08434082845968049</v>
       </c>
       <c r="K25">
-        <v>1.738742264864044</v>
+        <v>2.597959173647382</v>
       </c>
       <c r="L25">
-        <v>0.5892052198230999</v>
+        <v>0.5054614926155807</v>
       </c>
       <c r="M25">
-        <v>0.3523585078118998</v>
+        <v>0.3150352563274339</v>
       </c>
       <c r="N25">
-        <v>3.672429817011619</v>
+        <v>1.865016776150654</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6954218141781325</v>
+        <v>0.4233588441398126</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01055980818500402</v>
+        <v>0.01645870735628208</v>
       </c>
       <c r="E2">
-        <v>0.03417676845501916</v>
+        <v>0.2409840693217156</v>
       </c>
       <c r="F2">
-        <v>2.122523709326714</v>
+        <v>0.703667941737919</v>
       </c>
       <c r="G2">
-        <v>0.0008496111025654773</v>
+        <v>0.6334596620990425</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00956700764056586</v>
       </c>
       <c r="I2">
-        <v>0.9893067086808855</v>
+        <v>0.006460829756397946</v>
       </c>
       <c r="J2">
-        <v>0.07751138317311401</v>
+        <v>0.3457099406701332</v>
       </c>
       <c r="K2">
-        <v>2.187140998680377</v>
+        <v>0.3578114430123982</v>
       </c>
       <c r="L2">
-        <v>0.4404278198917666</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2722024422488296</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.924956095284017</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.630029262054379</v>
+      </c>
+      <c r="P2">
+        <v>1.924555134017822</v>
+      </c>
+      <c r="Q2">
+        <v>2.020137736233096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6189711064052119</v>
+        <v>0.3691695639715249</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.008943980383108396</v>
+        <v>0.01427520627217405</v>
       </c>
       <c r="E3">
-        <v>0.03100029417815442</v>
+        <v>0.2288637143736416</v>
       </c>
       <c r="F3">
-        <v>2.037888550024618</v>
+        <v>0.6164652739848435</v>
       </c>
       <c r="G3">
-        <v>0.0008566460103828208</v>
+        <v>0.5514143287550013</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00696012071957991</v>
       </c>
       <c r="I3">
-        <v>0.9827050257024652</v>
+        <v>0.007205025284373168</v>
       </c>
       <c r="J3">
-        <v>0.07293332812420772</v>
+        <v>0.3106899315722984</v>
       </c>
       <c r="K3">
-        <v>1.915139657212336</v>
+        <v>0.3488897180478396</v>
       </c>
       <c r="L3">
-        <v>0.3977801366052915</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2439101474711229</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.969472307696719</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>1.420450792995936</v>
+      </c>
+      <c r="P3">
+        <v>1.789617404454248</v>
+      </c>
+      <c r="Q3">
+        <v>1.772587033971007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5726918601714317</v>
+        <v>0.3353283408546019</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00800250067548447</v>
+        <v>0.01293974126283715</v>
       </c>
       <c r="E4">
-        <v>0.02907442441222585</v>
+        <v>0.2213251613022962</v>
       </c>
       <c r="F4">
-        <v>1.98907818550002</v>
+        <v>0.563491511411101</v>
       </c>
       <c r="G4">
-        <v>0.0008610994830969831</v>
+        <v>0.5015125727848044</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005520344180750369</v>
       </c>
       <c r="I4">
-        <v>0.9798620226845998</v>
+        <v>0.007728922867917376</v>
       </c>
       <c r="J4">
-        <v>0.07013649698266278</v>
+        <v>0.2895091778802481</v>
       </c>
       <c r="K4">
-        <v>1.750764446877213</v>
+        <v>0.3439395110958898</v>
       </c>
       <c r="L4">
-        <v>0.3722030742015079</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2268528307236508</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.998629952311376</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.291942139903909</v>
+      </c>
+      <c r="P4">
+        <v>1.708065202586511</v>
+      </c>
+      <c r="Q4">
+        <v>1.622258855348178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5539851275301544</v>
+        <v>0.3203022195193483</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.007629844071608716</v>
+        <v>0.01240027908256991</v>
       </c>
       <c r="E5">
-        <v>0.02829438173051813</v>
+        <v>0.2180855844500318</v>
       </c>
       <c r="F5">
-        <v>1.969934851267467</v>
+        <v>0.5419688794882234</v>
       </c>
       <c r="G5">
-        <v>0.000862948955201461</v>
+        <v>0.4812125662068212</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00497107542114561</v>
       </c>
       <c r="I5">
-        <v>0.9789952279918026</v>
+        <v>0.008041880898963516</v>
       </c>
       <c r="J5">
-        <v>0.06899886890299456</v>
+        <v>0.280916326656623</v>
       </c>
       <c r="K5">
-        <v>1.684370913674229</v>
+        <v>0.3426703981283374</v>
       </c>
       <c r="L5">
-        <v>0.3619204211651237</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2199742475290343</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.010957276939493</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.240428234353118</v>
+      </c>
+      <c r="P5">
+        <v>1.67735746774018</v>
+      </c>
+      <c r="Q5">
+        <v>1.561151871093983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5508877038881224</v>
+        <v>0.3164588477445704</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007568581479731051</v>
+        <v>0.01231518368043893</v>
       </c>
       <c r="E6">
-        <v>0.02816510532241878</v>
+        <v>0.2173743531484167</v>
       </c>
       <c r="F6">
-        <v>1.966799953645364</v>
+        <v>0.5383248730778973</v>
       </c>
       <c r="G6">
-        <v>0.0008632581778591424</v>
+        <v>0.4777627995411677</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004882451291499723</v>
       </c>
       <c r="I6">
-        <v>0.9788685646313411</v>
+        <v>0.008203649819066072</v>
       </c>
       <c r="J6">
-        <v>0.06881005350981084</v>
+        <v>0.2794499744787089</v>
       </c>
       <c r="K6">
-        <v>1.673379987626788</v>
+        <v>0.343228546212778</v>
       </c>
       <c r="L6">
-        <v>0.3602211027446742</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2188362524229177</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.013030742007473</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.232881835633592</v>
+      </c>
+      <c r="P6">
+        <v>1.674986056416344</v>
+      </c>
+      <c r="Q6">
+        <v>1.550754847120459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.572438975251373</v>
+        <v>0.331452988509767</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007997432525542081</v>
+        <v>0.01294454388896327</v>
       </c>
       <c r="E7">
-        <v>0.02906388695500439</v>
+        <v>0.2208133966615193</v>
       </c>
       <c r="F7">
-        <v>1.9888170450307</v>
+        <v>0.562989050311991</v>
       </c>
       <c r="G7">
-        <v>0.0008611242842498181</v>
+        <v>0.5010064159745156</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005514117489640646</v>
       </c>
       <c r="I7">
-        <v>0.9798491675898191</v>
+        <v>0.008015063271067824</v>
       </c>
       <c r="J7">
-        <v>0.07012114784610191</v>
+        <v>0.289273406681005</v>
       </c>
       <c r="K7">
-        <v>1.749866740129704</v>
+        <v>0.3460105503890745</v>
       </c>
       <c r="L7">
-        <v>0.3720638474348874</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2267597789769802</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.998794416813453</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.293998748600089</v>
+      </c>
+      <c r="P7">
+        <v>1.715084188951209</v>
+      </c>
+      <c r="Q7">
+        <v>1.62069122301466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6689155353344063</v>
+        <v>0.3998945757711851</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009991070331157204</v>
+        <v>0.01572070750157906</v>
       </c>
       <c r="E8">
-        <v>0.03307555933908191</v>
+        <v>0.2362060364831606</v>
       </c>
       <c r="F8">
-        <v>2.092657608241026</v>
+        <v>0.6731926236879673</v>
       </c>
       <c r="G8">
-        <v>0.0008520095139346091</v>
+        <v>0.6047554184294341</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.008635163329985235</v>
       </c>
       <c r="I8">
-        <v>0.9867713562300153</v>
+        <v>0.00704735004772683</v>
       </c>
       <c r="J8">
-        <v>0.07592903370441562</v>
+        <v>0.3334062875718047</v>
       </c>
       <c r="K8">
-        <v>2.092763243714955</v>
+        <v>0.3574447984835096</v>
       </c>
       <c r="L8">
-        <v>0.4255885035624232</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2623779065917198</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.939918235157748</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1.561385955860203</v>
+      </c>
+      <c r="P8">
+        <v>1.887764535175563</v>
+      </c>
+      <c r="Q8">
+        <v>1.933425794788803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8640444810186239</v>
+        <v>0.5360487618217746</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0143888957024636</v>
+        <v>0.02119249670074907</v>
       </c>
       <c r="E9">
-        <v>0.0412062891149052</v>
+        <v>0.2665960718399489</v>
       </c>
       <c r="F9">
-        <v>2.323597812557011</v>
+        <v>0.8949283106078241</v>
       </c>
       <c r="G9">
-        <v>0.0008351526712955171</v>
+        <v>0.8130917795175066</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01618539999542645</v>
       </c>
       <c r="I9">
-        <v>1.010565593348936</v>
+        <v>0.005262454668756966</v>
       </c>
       <c r="J9">
-        <v>0.08750214749555951</v>
+        <v>0.4230359486526964</v>
       </c>
       <c r="K9">
-        <v>2.789624619946409</v>
+        <v>0.3803586037090838</v>
       </c>
       <c r="L9">
-        <v>0.5360143226468068</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3350436873304545</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.839592244201356</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>2.082660943381242</v>
+      </c>
+      <c r="P9">
+        <v>2.223532143079353</v>
+      </c>
+      <c r="Q9">
+        <v>2.563431574591192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.012074908741511</v>
+        <v>0.6330701660439217</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01805246953620809</v>
+        <v>0.02573353709843218</v>
       </c>
       <c r="E10">
-        <v>0.0474486434050565</v>
+        <v>0.2744647899971966</v>
       </c>
       <c r="F10">
-        <v>2.513371323673169</v>
+        <v>1.053984086255639</v>
       </c>
       <c r="G10">
-        <v>0.0008233183269405751</v>
+        <v>0.9609155059597896</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02241269041675498</v>
       </c>
       <c r="I10">
-        <v>1.035209802459384</v>
+        <v>0.004474379372471304</v>
       </c>
       <c r="J10">
-        <v>0.0962284063137524</v>
+        <v>0.4866823764472628</v>
       </c>
       <c r="K10">
-        <v>3.321923238712714</v>
+        <v>0.4039585904677878</v>
       </c>
       <c r="L10">
-        <v>0.621444386170424</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3906459967754472</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.776095302779666</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>2.414836802243158</v>
+      </c>
+      <c r="P10">
+        <v>2.499004955003613</v>
+      </c>
+      <c r="Q10">
+        <v>3.01052110221093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.080689517359986</v>
+        <v>0.6879462576526691</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01984769229042627</v>
+        <v>0.03222326078952165</v>
       </c>
       <c r="E11">
-        <v>0.05037429602098875</v>
+        <v>0.2026664467150248</v>
       </c>
       <c r="F11">
-        <v>2.604925344117305</v>
+        <v>1.057225463546203</v>
       </c>
       <c r="G11">
-        <v>0.0008180370172248667</v>
+        <v>0.9518112027827357</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03940338156125378</v>
       </c>
       <c r="I11">
-        <v>1.048206485961089</v>
+        <v>0.004757850489224502</v>
       </c>
       <c r="J11">
-        <v>0.1002750085983557</v>
+        <v>0.4780326643222708</v>
       </c>
       <c r="K11">
-        <v>3.56983692955896</v>
+        <v>0.4452417880730906</v>
       </c>
       <c r="L11">
-        <v>0.6614833794361914</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4165445170518751</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.749672486514328</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.116695406835973</v>
+      </c>
+      <c r="P11">
+        <v>2.800344234916622</v>
+      </c>
+      <c r="Q11">
+        <v>2.973304572359325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.10687890353384</v>
+        <v>0.7208639985777836</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02054932522274555</v>
+        <v>0.03710165720058711</v>
       </c>
       <c r="E12">
-        <v>0.05149714396357474</v>
+        <v>0.2042037686657814</v>
       </c>
       <c r="F12">
-        <v>2.640425285943635</v>
+        <v>1.026153177412098</v>
       </c>
       <c r="G12">
-        <v>0.0008160502587436537</v>
+        <v>0.9133115258049713</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07638996413871979</v>
       </c>
       <c r="I12">
-        <v>1.053406125793693</v>
+        <v>0.004675021978270522</v>
       </c>
       <c r="J12">
-        <v>0.1018210961310864</v>
+        <v>0.4572358434827777</v>
       </c>
       <c r="K12">
-        <v>3.664669568918555</v>
+        <v>0.4730640058010565</v>
       </c>
       <c r="L12">
-        <v>0.6768365973392747</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4264498515032855</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.740044087611864</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.812077769389688</v>
+      </c>
+      <c r="P12">
+        <v>2.992538392360842</v>
+      </c>
+      <c r="Q12">
+        <v>2.848225890635376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.101228972134209</v>
+        <v>0.7327406841795892</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02039718808283197</v>
+        <v>0.04097812365321118</v>
       </c>
       <c r="E13">
-        <v>0.05125460803596837</v>
+        <v>0.2596410940704885</v>
       </c>
       <c r="F13">
-        <v>2.632741459267478</v>
+        <v>0.9665016774974191</v>
       </c>
       <c r="G13">
-        <v>0.0008164775836002881</v>
+        <v>0.8496657289788487</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1301958161791106</v>
       </c>
       <c r="I13">
-        <v>1.05227356150364</v>
+        <v>0.004714005620054529</v>
       </c>
       <c r="J13">
-        <v>0.1014874622879454</v>
+        <v>0.4257005013099189</v>
       </c>
       <c r="K13">
-        <v>3.644201166342611</v>
+        <v>0.4951072922474609</v>
       </c>
       <c r="L13">
-        <v>0.6735211206527651</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4243120065357004</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.742100556365585</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.491336339726558</v>
+      </c>
+      <c r="P13">
+        <v>3.121545738793571</v>
+      </c>
+      <c r="Q13">
+        <v>2.647273004271284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.082839854066492</v>
+        <v>0.7303028327516472</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01990495819446281</v>
+        <v>0.04325566104576239</v>
       </c>
       <c r="E14">
-        <v>0.05046635739200944</v>
+        <v>0.3301143777943452</v>
       </c>
       <c r="F14">
-        <v>2.607828821122965</v>
+        <v>0.9121507429481852</v>
       </c>
       <c r="G14">
-        <v>0.0008178733111037622</v>
+        <v>0.7941769497708435</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1781504856183602</v>
       </c>
       <c r="I14">
-        <v>1.04862856105099</v>
+        <v>0.004883632273197769</v>
       </c>
       <c r="J14">
-        <v>0.1004019146905186</v>
+        <v>0.3989425351869329</v>
       </c>
       <c r="K14">
-        <v>3.577619012067032</v>
+        <v>0.5087380349069548</v>
       </c>
       <c r="L14">
-        <v>0.6627425284730037</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4173574003481946</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.748872647789625</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.265207947470401</v>
+      </c>
+      <c r="P14">
+        <v>3.18582353797396</v>
+      </c>
+      <c r="Q14">
+        <v>2.47357804592562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.071603610094343</v>
+        <v>0.7234295009650964</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0196064006826866</v>
+        <v>0.04354356890510758</v>
       </c>
       <c r="E15">
-        <v>0.04998556290975209</v>
+        <v>0.3504696438200341</v>
       </c>
       <c r="F15">
-        <v>2.592679740205739</v>
+        <v>0.8928978435378383</v>
       </c>
       <c r="G15">
-        <v>0.000818729899987547</v>
+        <v>0.775310370707885</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1901427032121035</v>
       </c>
       <c r="I15">
-        <v>1.046432773902282</v>
+        <v>0.005079747898659726</v>
       </c>
       <c r="J15">
-        <v>0.09973885735031018</v>
+        <v>0.3901676354223156</v>
       </c>
       <c r="K15">
-        <v>3.536963531008155</v>
+        <v>0.5116810969002756</v>
       </c>
       <c r="L15">
-        <v>0.6561659416715031</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4131106325548473</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.753070623054626</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.205274105537541</v>
+      </c>
+      <c r="P15">
+        <v>3.190215462087025</v>
+      </c>
+      <c r="Q15">
+        <v>2.415181082695995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.007618369565279</v>
+        <v>0.6765411974872677</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01793801078350299</v>
+        <v>0.0406470502784515</v>
       </c>
       <c r="E16">
-        <v>0.04725939066972984</v>
+        <v>0.3338656138856635</v>
       </c>
       <c r="F16">
-        <v>2.507499773466336</v>
+        <v>0.8370830016175574</v>
       </c>
       <c r="G16">
-        <v>0.0008236654013040745</v>
+        <v>0.7254599891095381</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1751875711707811</v>
       </c>
       <c r="I16">
-        <v>1.034398146727831</v>
+        <v>0.005560233944967408</v>
       </c>
       <c r="J16">
-        <v>0.09596572052834773</v>
+        <v>0.3694543326075461</v>
       </c>
       <c r="K16">
-        <v>3.305847850214377</v>
+        <v>0.4970407610474226</v>
       </c>
       <c r="L16">
-        <v>0.6188532587727451</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3889665662532877</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.777873579144142</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.139394959357361</v>
+      </c>
+      <c r="P16">
+        <v>3.043555398038563</v>
+      </c>
+      <c r="Q16">
+        <v>2.265940108337247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9687078444333963</v>
+        <v>0.6417898015606909</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01694969272513447</v>
+        <v>0.03721755029830121</v>
       </c>
       <c r="E17">
-        <v>0.04561074882344407</v>
+        <v>0.2786015522117076</v>
       </c>
       <c r="F17">
-        <v>2.456636687717463</v>
+        <v>0.8231705256013413</v>
       </c>
       <c r="G17">
-        <v>0.0008267182978874381</v>
+        <v>0.7166062599931422</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1364182404347218</v>
       </c>
       <c r="I17">
-        <v>1.027487198205471</v>
+        <v>0.005866353427292914</v>
       </c>
       <c r="J17">
-        <v>0.09367253514760776</v>
+        <v>0.3677832141587913</v>
       </c>
       <c r="K17">
-        <v>3.165627316824668</v>
+        <v>0.4788059477537701</v>
       </c>
       <c r="L17">
-        <v>0.5962795082358525</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3743174594919481</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.793735863198307</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.20544308199446</v>
+      </c>
+      <c r="P17">
+        <v>2.897975642889094</v>
+      </c>
+      <c r="Q17">
+        <v>2.243543106741953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9464460193386799</v>
+        <v>0.6172427333015662</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01639312503773027</v>
+        <v>0.03307615726199487</v>
       </c>
       <c r="E18">
-        <v>0.04467041268441818</v>
+        <v>0.2132006352445046</v>
       </c>
       <c r="F18">
-        <v>2.427868216822603</v>
+        <v>0.843702212503544</v>
       </c>
       <c r="G18">
-        <v>0.0008284839621111051</v>
+        <v>0.7423327355250535</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08387011162834312</v>
       </c>
       <c r="I18">
-        <v>1.023678911982948</v>
+        <v>0.005734345646782657</v>
       </c>
       <c r="J18">
-        <v>0.09236062519987343</v>
+        <v>0.3823428273799863</v>
       </c>
       <c r="K18">
-        <v>3.085511007440175</v>
+        <v>0.4536917492659853</v>
       </c>
       <c r="L18">
-        <v>0.5834049615068437</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3659478726019074</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.803089662226853</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.402540301050365</v>
+      </c>
+      <c r="P18">
+        <v>2.732219615902665</v>
+      </c>
+      <c r="Q18">
+        <v>2.328484443027094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9389282249457551</v>
+        <v>0.5956807564946587</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01620662774246284</v>
+        <v>0.02889834612474118</v>
       </c>
       <c r="E19">
-        <v>0.04435331678877574</v>
+        <v>0.1886713709707108</v>
       </c>
       <c r="F19">
-        <v>2.418209004981676</v>
+        <v>0.8905247137922601</v>
       </c>
       <c r="G19">
-        <v>0.000829083499409705</v>
+        <v>0.7945338151370152</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04045625523949781</v>
       </c>
       <c r="I19">
-        <v>1.022417509308831</v>
+        <v>0.005844610362638392</v>
       </c>
       <c r="J19">
-        <v>0.09191757327356953</v>
+        <v>0.4089676605398154</v>
       </c>
       <c r="K19">
-        <v>3.058473296897148</v>
+        <v>0.4307517630120401</v>
       </c>
       <c r="L19">
-        <v>0.5790639911541575</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3631234027141303</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.806295569338417</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.714687697833298</v>
+      </c>
+      <c r="P19">
+        <v>2.583196971597317</v>
+      </c>
+      <c r="Q19">
+        <v>2.494863063729468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9728375128793516</v>
+        <v>0.5962327166133718</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01705364788557873</v>
+        <v>0.02459431412556157</v>
       </c>
       <c r="E20">
-        <v>0.04578541209789755</v>
+        <v>0.2703878867652847</v>
       </c>
       <c r="F20">
-        <v>2.462000238118264</v>
+        <v>1.010905987816926</v>
       </c>
       <c r="G20">
-        <v>0.0008263923166392489</v>
+        <v>0.9207248005215547</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02066985618236394</v>
       </c>
       <c r="I20">
-        <v>1.02820547927918</v>
+        <v>0.005536244434193982</v>
       </c>
       <c r="J20">
-        <v>0.09391589870426742</v>
+        <v>0.4692562504745581</v>
       </c>
       <c r="K20">
-        <v>3.180497823597022</v>
+        <v>0.4047188300413893</v>
       </c>
       <c r="L20">
-        <v>0.5986710594312683</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3758709888694298</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.792023306656802</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>2.333964047260167</v>
+      </c>
+      <c r="P20">
+        <v>2.451483507562756</v>
+      </c>
+      <c r="Q20">
+        <v>2.888718022629519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.0882353828612</v>
+        <v>0.6690799432311962</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02004891725341551</v>
+        <v>0.02735763285606652</v>
       </c>
       <c r="E21">
-        <v>0.0506974571868728</v>
+        <v>0.2984615548679344</v>
       </c>
       <c r="F21">
-        <v>2.61512305914485</v>
+        <v>1.147199165251735</v>
       </c>
       <c r="G21">
-        <v>0.000817463007956482</v>
+        <v>1.049567611775686</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02653689487572297</v>
       </c>
       <c r="I21">
-        <v>1.049691459142181</v>
+        <v>0.004841449776046503</v>
       </c>
       <c r="J21">
-        <v>0.1007203710349458</v>
+        <v>0.5257787604108728</v>
       </c>
       <c r="K21">
-        <v>3.597148888304844</v>
+        <v>0.4179756654892302</v>
       </c>
       <c r="L21">
-        <v>0.6659030819021581</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4193973791167593</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.746873081754345</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>2.671485537495798</v>
+      </c>
+      <c r="P21">
+        <v>2.632865044952155</v>
+      </c>
+      <c r="Q21">
+        <v>3.28053507093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.164870750232353</v>
+        <v>0.7218653904558607</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02213554613590318</v>
+        <v>0.02939919372185784</v>
       </c>
       <c r="E22">
-        <v>0.05399644664170111</v>
+        <v>0.3102985838286259</v>
       </c>
       <c r="F22">
-        <v>2.72008071286011</v>
+        <v>1.233615955467855</v>
       </c>
       <c r="G22">
-        <v>0.000811703065355166</v>
+        <v>1.130598882141555</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03041454429726098</v>
       </c>
       <c r="I22">
-        <v>1.065366072202274</v>
+        <v>0.00411794916115138</v>
       </c>
       <c r="J22">
-        <v>0.1052489687019929</v>
+        <v>0.5612179949743847</v>
       </c>
       <c r="K22">
-        <v>3.875076856152759</v>
+        <v>0.4257197638052475</v>
       </c>
       <c r="L22">
-        <v>0.7109702500540322</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4484223586435547</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.719576869680139</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>2.861523710820961</v>
+      </c>
+      <c r="P22">
+        <v>2.751669270196714</v>
+      </c>
+      <c r="Q22">
+        <v>3.526726277456874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.123849472052854</v>
+        <v>0.6981598689991131</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02100885431013921</v>
+        <v>0.02829403591321977</v>
       </c>
       <c r="E23">
-        <v>0.05222665368949109</v>
+        <v>0.3045208810009221</v>
       </c>
       <c r="F23">
-        <v>2.663587754899552</v>
+        <v>1.187630024075276</v>
       </c>
       <c r="G23">
-        <v>0.0008147708596830044</v>
+        <v>1.087522127969194</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02831322331460551</v>
       </c>
       <c r="I23">
-        <v>1.05684329358845</v>
+        <v>0.004161708473088943</v>
       </c>
       <c r="J23">
-        <v>0.1028235525032315</v>
+        <v>0.5423874047936863</v>
       </c>
       <c r="K23">
-        <v>3.726182717879738</v>
+        <v>0.4188489846279353</v>
       </c>
       <c r="L23">
-        <v>0.6868059842819605</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4328743104120605</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.733934631491451</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>2.756729343520661</v>
+      </c>
+      <c r="P23">
+        <v>2.678756008129994</v>
+      </c>
+      <c r="Q23">
+        <v>3.395868688404448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.970970154002714</v>
+        <v>0.6002603716125918</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01700661377978818</v>
+        <v>0.02415424867700722</v>
       </c>
       <c r="E24">
-        <v>0.04570642369451861</v>
+        <v>0.2818772772752745</v>
       </c>
       <c r="F24">
-        <v>2.459573908340403</v>
+        <v>1.015421702874335</v>
       </c>
       <c r="G24">
-        <v>0.0008265396598343632</v>
+        <v>0.9260775238645209</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02092184568120581</v>
       </c>
       <c r="I24">
-        <v>1.027880232329608</v>
+        <v>0.004991319558345531</v>
       </c>
       <c r="J24">
-        <v>0.09380585407557618</v>
+        <v>0.4720076598269429</v>
       </c>
       <c r="K24">
-        <v>3.17377332444147</v>
+        <v>0.398158230548475</v>
       </c>
       <c r="L24">
-        <v>0.5975895187039555</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3751684759169009</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.792796825219128</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>2.36620700861846</v>
+      </c>
+      <c r="P24">
+        <v>2.420200019634365</v>
+      </c>
+      <c r="Q24">
+        <v>2.905821419600869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8105181411971216</v>
+        <v>0.4930171695924912</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0131338951443567</v>
+        <v>0.01972775440008334</v>
       </c>
       <c r="E25">
-        <v>0.03896802786880471</v>
+        <v>0.2575827311926311</v>
       </c>
       <c r="F25">
-        <v>2.257860853324502</v>
+        <v>0.8338894544178999</v>
       </c>
       <c r="G25">
-        <v>0.0008396108565335014</v>
+        <v>0.7557277567816101</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01397149410419291</v>
       </c>
       <c r="I25">
-        <v>1.002943153766616</v>
+        <v>0.006170404550746689</v>
       </c>
       <c r="J25">
-        <v>0.08434082845968049</v>
+        <v>0.3982189061564867</v>
       </c>
       <c r="K25">
-        <v>2.597959173647382</v>
+        <v>0.3776495947032394</v>
       </c>
       <c r="L25">
-        <v>0.5054614926155807</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3150352563274339</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.865016776150654</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.946398261848742</v>
+      </c>
+      <c r="P25">
+        <v>2.14547132116266</v>
+      </c>
+      <c r="Q25">
+        <v>2.389686638278192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4233588441398126</v>
+        <v>0.5221448651161893</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01645870735628208</v>
+        <v>0.01644489834569285</v>
       </c>
       <c r="E2">
-        <v>0.2409840693217156</v>
+        <v>0.2418354986778297</v>
       </c>
       <c r="F2">
-        <v>0.703667941737919</v>
+        <v>0.7093368234716024</v>
       </c>
       <c r="G2">
-        <v>0.6334596620990425</v>
+        <v>0.6415813214732111</v>
       </c>
       <c r="H2">
-        <v>0.00956700764056586</v>
+        <v>0.009122916002363896</v>
       </c>
       <c r="I2">
-        <v>0.006460829756397946</v>
+        <v>0.003577911221806396</v>
       </c>
       <c r="J2">
-        <v>0.3457099406701332</v>
+        <v>0.3982697673823736</v>
       </c>
       <c r="K2">
-        <v>0.3578114430123982</v>
+        <v>0.2862923251048493</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1163807633461484</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.102980921891767</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.630029262054379</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.924555134017822</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.020137736233096</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.560022325785255</v>
+      </c>
+      <c r="R2">
+        <v>1.714885417047128</v>
+      </c>
+      <c r="S2">
+        <v>2.042662168281055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3691695639715249</v>
+        <v>0.4608143907314144</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01427520627217405</v>
+        <v>0.01424072635743201</v>
       </c>
       <c r="E3">
-        <v>0.2288637143736416</v>
+        <v>0.2294866162728191</v>
       </c>
       <c r="F3">
-        <v>0.6164652739848435</v>
+        <v>0.622616269294781</v>
       </c>
       <c r="G3">
-        <v>0.5514143287550013</v>
+        <v>0.5569366263101472</v>
       </c>
       <c r="H3">
-        <v>0.00696012071957991</v>
+        <v>0.006625120435425402</v>
       </c>
       <c r="I3">
-        <v>0.007205025284373168</v>
+        <v>0.004005076317680878</v>
       </c>
       <c r="J3">
-        <v>0.3106899315722984</v>
+        <v>0.3637533492628506</v>
       </c>
       <c r="K3">
-        <v>0.3488897180478396</v>
+        <v>0.2800898325138306</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1113667224471993</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1052874296820541</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.420450792995936</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.789617404454248</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.772587033971007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>1.355719510547303</v>
+      </c>
+      <c r="R3">
+        <v>1.592599113191582</v>
+      </c>
+      <c r="S3">
+        <v>1.796538006494075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3353283408546019</v>
+        <v>0.4223351820860017</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01293974126283715</v>
+        <v>0.01289344614254873</v>
       </c>
       <c r="E4">
-        <v>0.2213251613022962</v>
+        <v>0.2217930531681276</v>
       </c>
       <c r="F4">
-        <v>0.563491511411101</v>
+        <v>0.5698889359055457</v>
       </c>
       <c r="G4">
-        <v>0.5015125727848044</v>
+        <v>0.5054950603531978</v>
       </c>
       <c r="H4">
-        <v>0.005520344180750369</v>
+        <v>0.005246499073736866</v>
       </c>
       <c r="I4">
-        <v>0.007728922867917376</v>
+        <v>0.004325738272268786</v>
       </c>
       <c r="J4">
-        <v>0.2895091778802481</v>
+        <v>0.3427134913401488</v>
       </c>
       <c r="K4">
-        <v>0.3439395110958898</v>
+        <v>0.2768101567959036</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1090081690190488</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1068827592827439</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.291942139903909</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.708065202586511</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.622258855348178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.230554634939239</v>
+      </c>
+      <c r="R4">
+        <v>1.519054181598435</v>
+      </c>
+      <c r="S4">
+        <v>1.646916469099551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3203022195193483</v>
+        <v>0.4053410175671956</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01240027908256991</v>
+        <v>0.0123489543089903</v>
       </c>
       <c r="E5">
-        <v>0.2180855844500318</v>
+        <v>0.2184926991010343</v>
       </c>
       <c r="F5">
-        <v>0.5419688794882234</v>
+        <v>0.548461404379438</v>
       </c>
       <c r="G5">
-        <v>0.4812125662068212</v>
+        <v>0.4845867561197537</v>
       </c>
       <c r="H5">
-        <v>0.00497107542114561</v>
+        <v>0.004720726440586187</v>
       </c>
       <c r="I5">
-        <v>0.008041880898963516</v>
+        <v>0.004562847319770746</v>
       </c>
       <c r="J5">
-        <v>0.280916326656623</v>
+        <v>0.3341413245301794</v>
       </c>
       <c r="K5">
-        <v>0.3426703981283374</v>
+        <v>0.27601880424805</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1082924025867626</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1078199199485184</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.240428234353118</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.67735746774018</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.561151871093983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.180331429805065</v>
+      </c>
+      <c r="R5">
+        <v>1.491254902132596</v>
+      </c>
+      <c r="S5">
+        <v>1.58607944833139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3164588477445704</v>
+        <v>0.4011497205043213</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01231518368043893</v>
+        <v>0.01226252112578763</v>
       </c>
       <c r="E6">
-        <v>0.2173743531484167</v>
+        <v>0.2177784644814977</v>
       </c>
       <c r="F6">
-        <v>0.5383248730778973</v>
+        <v>0.5448399223523239</v>
       </c>
       <c r="G6">
-        <v>0.4777627995411677</v>
+        <v>0.4810452252065858</v>
       </c>
       <c r="H6">
-        <v>0.004882451291499723</v>
+        <v>0.004635796441437967</v>
       </c>
       <c r="I6">
-        <v>0.008203649819066072</v>
+        <v>0.004724527675275425</v>
       </c>
       <c r="J6">
-        <v>0.2794499744787089</v>
+        <v>0.3326792211147165</v>
       </c>
       <c r="K6">
-        <v>0.343228546212778</v>
+        <v>0.2764065151449451</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1082662644887407</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1082755530228425</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.232881835633592</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.674986056416344</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.550754847120459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.172879603379002</v>
+      </c>
+      <c r="R6">
+        <v>1.488859721853117</v>
+      </c>
+      <c r="S6">
+        <v>1.575750577425708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.331452988509767</v>
+        <v>0.4184571320599275</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01294454388896327</v>
+        <v>0.01297281461277677</v>
       </c>
       <c r="E7">
-        <v>0.2208133966615193</v>
+        <v>0.2214095678967318</v>
       </c>
       <c r="F7">
-        <v>0.562989050311991</v>
+        <v>0.5680830189724233</v>
       </c>
       <c r="G7">
-        <v>0.5010064159745156</v>
+        <v>0.5091015374608929</v>
       </c>
       <c r="H7">
-        <v>0.005514117489640646</v>
+        <v>0.00523520044472181</v>
       </c>
       <c r="I7">
-        <v>0.008015063271067824</v>
+        <v>0.004643519231492199</v>
       </c>
       <c r="J7">
-        <v>0.289273406681005</v>
+        <v>0.3358754472654084</v>
       </c>
       <c r="K7">
-        <v>0.3460105503890745</v>
+        <v>0.2782455734068172</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1092610258506106</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1077051398753035</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.293998748600089</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.715084188951209</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.62069122301466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.231299010127984</v>
+      </c>
+      <c r="R7">
+        <v>1.524990214121374</v>
+      </c>
+      <c r="S7">
+        <v>1.640785919654007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3998945757711851</v>
+        <v>0.4964636972931942</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01572070750157906</v>
+        <v>0.01595379112454154</v>
       </c>
       <c r="E8">
-        <v>0.2362060364831606</v>
+        <v>0.2373829459907206</v>
       </c>
       <c r="F8">
-        <v>0.6731926236879673</v>
+        <v>0.6746247052163312</v>
       </c>
       <c r="G8">
-        <v>0.6047554184294341</v>
+        <v>0.6257821934931656</v>
       </c>
       <c r="H8">
-        <v>0.008635163329985235</v>
+        <v>0.008209641933496492</v>
       </c>
       <c r="I8">
-        <v>0.00704735004772683</v>
+        <v>0.004099250754467931</v>
       </c>
       <c r="J8">
-        <v>0.3334062875718047</v>
+        <v>0.3642986712913938</v>
       </c>
       <c r="K8">
-        <v>0.3574447984835096</v>
+        <v>0.2861182286246731</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1150149365995752</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.104767233477201</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.561385955860203</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.887764535175563</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.933425794788803</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1.489382527103672</v>
+      </c>
+      <c r="R8">
+        <v>1.681512616046518</v>
+      </c>
+      <c r="S8">
+        <v>1.941040658575162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5360487618217746</v>
+        <v>0.6491556782901</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02119249670074907</v>
+        <v>0.02155985391888038</v>
       </c>
       <c r="E9">
-        <v>0.2665960718399489</v>
+        <v>0.2683527321948631</v>
       </c>
       <c r="F9">
-        <v>0.8949283106078241</v>
+        <v>0.8934975119903754</v>
       </c>
       <c r="G9">
-        <v>0.8130917795175066</v>
+        <v>0.8449997240266782</v>
       </c>
       <c r="H9">
-        <v>0.01618539999542645</v>
+        <v>0.0154364850401304</v>
       </c>
       <c r="I9">
-        <v>0.005262454668756966</v>
+        <v>0.003018404314928169</v>
       </c>
       <c r="J9">
-        <v>0.4230359486526964</v>
+        <v>0.445223589087135</v>
       </c>
       <c r="K9">
-        <v>0.3803586037090838</v>
+        <v>0.3030529441598375</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1313042073487587</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09910355899118528</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.082660943381242</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>2.223532143079353</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.563431574591192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.997408287706577</v>
+      </c>
+      <c r="R9">
+        <v>1.98885497544066</v>
+      </c>
+      <c r="S9">
+        <v>2.561727104751185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6330701660439217</v>
+        <v>0.7586500215304568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02573353709843218</v>
+        <v>0.0266729682340241</v>
       </c>
       <c r="E10">
-        <v>0.2744647899971966</v>
+        <v>0.2763639826754876</v>
       </c>
       <c r="F10">
-        <v>1.053984086255639</v>
+        <v>1.042193444524614</v>
       </c>
       <c r="G10">
-        <v>0.9609155059597896</v>
+        <v>1.02623883419642</v>
       </c>
       <c r="H10">
-        <v>0.02241269041675498</v>
+        <v>0.02134773306850768</v>
       </c>
       <c r="I10">
-        <v>0.004474379372471304</v>
+        <v>0.002713899505693895</v>
       </c>
       <c r="J10">
-        <v>0.4866823764472628</v>
+        <v>0.4636536598870009</v>
       </c>
       <c r="K10">
-        <v>0.4039585904677878</v>
+        <v>0.3212076288479935</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1479100089245513</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09695013163359434</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.414836802243158</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2.499004955003613</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.01052110221093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>2.314550497308744</v>
+      </c>
+      <c r="R10">
+        <v>2.242559516835172</v>
+      </c>
+      <c r="S10">
+        <v>2.973202797013812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6879462576526691</v>
+        <v>0.8297226514970362</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03222326078952165</v>
+        <v>0.03436671108945433</v>
       </c>
       <c r="E11">
-        <v>0.2026664467150248</v>
+        <v>0.1960498826882038</v>
       </c>
       <c r="F11">
-        <v>1.057225463546203</v>
+        <v>1.028038101290861</v>
       </c>
       <c r="G11">
-        <v>0.9518112027827357</v>
+        <v>1.074145611190261</v>
       </c>
       <c r="H11">
-        <v>0.03940338156125378</v>
+        <v>0.03822734389694915</v>
       </c>
       <c r="I11">
-        <v>0.004757850489224502</v>
+        <v>0.003229936300917835</v>
       </c>
       <c r="J11">
-        <v>0.4780326643222708</v>
+        <v>0.3781650687587046</v>
       </c>
       <c r="K11">
-        <v>0.4452417880730906</v>
+        <v>0.3509611986835424</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1642821973747068</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1036685763538436</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.116695406835973</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>2.800344234916622</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.973304572359325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>2.005100313126832</v>
+      </c>
+      <c r="R11">
+        <v>2.508823052915631</v>
+      </c>
+      <c r="S11">
+        <v>2.876236367444932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7208639985777836</v>
+        <v>0.8739063423512334</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03710165720058711</v>
+        <v>0.03992713244151957</v>
       </c>
       <c r="E12">
-        <v>0.2042037686657814</v>
+        <v>0.1880002555364513</v>
       </c>
       <c r="F12">
-        <v>1.026153177412098</v>
+        <v>0.9896887929132561</v>
       </c>
       <c r="G12">
-        <v>0.9133115258049713</v>
+        <v>1.060055052473913</v>
       </c>
       <c r="H12">
-        <v>0.07638996413871979</v>
+        <v>0.07520413610201615</v>
       </c>
       <c r="I12">
-        <v>0.004675021978270522</v>
+        <v>0.003182420001263786</v>
       </c>
       <c r="J12">
-        <v>0.4572358434827777</v>
+        <v>0.3280022626985613</v>
       </c>
       <c r="K12">
-        <v>0.4730640058010565</v>
+        <v>0.3704537154118412</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.17387907823597</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1090274866778209</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.812077769389688</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2.992538392360842</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.848225890635376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.700077652307399</v>
+      </c>
+      <c r="R12">
+        <v>2.675435070650735</v>
+      </c>
+      <c r="S12">
+        <v>2.726794264413144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7327406841795892</v>
+        <v>0.8938590362376999</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04097812365321118</v>
+        <v>0.04373978998361139</v>
       </c>
       <c r="E13">
-        <v>0.2596410940704885</v>
+        <v>0.2336902717104579</v>
       </c>
       <c r="F13">
-        <v>0.9665016774974191</v>
+        <v>0.9332216846133576</v>
       </c>
       <c r="G13">
-        <v>0.8496657289788487</v>
+        <v>0.9864785945314907</v>
       </c>
       <c r="H13">
-        <v>0.1301958161791106</v>
+        <v>0.1290873737772245</v>
       </c>
       <c r="I13">
-        <v>0.004714005620054529</v>
+        <v>0.003172604140448954</v>
       </c>
       <c r="J13">
-        <v>0.4257005013099189</v>
+        <v>0.3098460056708205</v>
       </c>
       <c r="K13">
-        <v>0.4951072922474609</v>
+        <v>0.3850634468004301</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1790445652856576</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1146670023400667</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.491336339726558</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>3.121545738793571</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>2.647273004271284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.388000938865233</v>
+      </c>
+      <c r="R13">
+        <v>2.78155620850319</v>
+      </c>
+      <c r="S13">
+        <v>2.537362496461043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7303028327516472</v>
+        <v>0.8956567745864277</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04325566104576239</v>
+        <v>0.04559559530575541</v>
       </c>
       <c r="E14">
-        <v>0.3301143777943452</v>
+        <v>0.2977438732373408</v>
       </c>
       <c r="F14">
-        <v>0.9121507429481852</v>
+        <v>0.8853835650632789</v>
       </c>
       <c r="G14">
-        <v>0.7941769497708435</v>
+        <v>0.9101525331593336</v>
       </c>
       <c r="H14">
-        <v>0.1781504856183602</v>
+        <v>0.1771273954449271</v>
       </c>
       <c r="I14">
-        <v>0.004883632273197769</v>
+        <v>0.003283897720544715</v>
       </c>
       <c r="J14">
-        <v>0.3989425351869329</v>
+        <v>0.3095832348729743</v>
       </c>
       <c r="K14">
-        <v>0.5087380349069548</v>
+        <v>0.3936220867474418</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1807612858207861</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1190441662996378</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.265207947470401</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>3.18582353797396</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>2.47357804592562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.171299335223267</v>
+      </c>
+      <c r="R14">
+        <v>2.830408731321512</v>
+      </c>
+      <c r="S14">
+        <v>2.386162190110326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7234295009650964</v>
+        <v>0.8890742707003199</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04354356890510758</v>
+        <v>0.04561943142962832</v>
       </c>
       <c r="E15">
-        <v>0.3504696438200341</v>
+        <v>0.3169052546680931</v>
       </c>
       <c r="F15">
-        <v>0.8928978435378383</v>
+        <v>0.8695383844953284</v>
       </c>
       <c r="G15">
-        <v>0.775310370707885</v>
+        <v>0.8804177697488598</v>
       </c>
       <c r="H15">
-        <v>0.1901427032121035</v>
+        <v>0.1891590441441338</v>
       </c>
       <c r="I15">
-        <v>0.005079747898659726</v>
+        <v>0.003466402570578175</v>
       </c>
       <c r="J15">
-        <v>0.3901676354223156</v>
+        <v>0.3147253122361917</v>
       </c>
       <c r="K15">
-        <v>0.5116810969002756</v>
+        <v>0.3953082018797929</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1804328988660657</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1204592388805921</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.205274105537541</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>3.190215462087025</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>2.415181082695995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.114877789533693</v>
+      </c>
+      <c r="R15">
+        <v>2.831267290572697</v>
+      </c>
+      <c r="S15">
+        <v>2.339372415308929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6765411974872677</v>
+        <v>0.8347029950204217</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0406470502784515</v>
+        <v>0.04146130560835815</v>
       </c>
       <c r="E16">
-        <v>0.3338656138856635</v>
+        <v>0.304042199790878</v>
       </c>
       <c r="F16">
-        <v>0.8370830016175574</v>
+        <v>0.8288891409857513</v>
       </c>
       <c r="G16">
-        <v>0.7254599891095381</v>
+        <v>0.7824812773276619</v>
       </c>
       <c r="H16">
-        <v>0.1751875711707811</v>
+        <v>0.1743869591490181</v>
       </c>
       <c r="I16">
-        <v>0.005560233944967408</v>
+        <v>0.003780526202578294</v>
       </c>
       <c r="J16">
-        <v>0.3694543326075461</v>
+        <v>0.3586318028620923</v>
       </c>
       <c r="K16">
-        <v>0.4970407610474226</v>
+        <v>0.3836222801201075</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1705749584295404</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1207564321712518</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.139394959357361</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>3.043555398038563</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>2.265940108337247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.060016019659443</v>
+      </c>
+      <c r="R16">
+        <v>2.694420514701676</v>
+      </c>
+      <c r="S16">
+        <v>2.241417265860633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6417898015606909</v>
+        <v>0.7920096653418511</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03721755029830121</v>
+        <v>0.03752698558848522</v>
       </c>
       <c r="E17">
-        <v>0.2786015522117076</v>
+        <v>0.2541962354891716</v>
       </c>
       <c r="F17">
-        <v>0.8231705256013413</v>
+        <v>0.8213619984266955</v>
       </c>
       <c r="G17">
-        <v>0.7166062599931422</v>
+        <v>0.7534186437924575</v>
       </c>
       <c r="H17">
-        <v>0.1364182404347218</v>
+        <v>0.1357013866750094</v>
       </c>
       <c r="I17">
-        <v>0.005866353427292914</v>
+        <v>0.003990769657975513</v>
       </c>
       <c r="J17">
-        <v>0.3677832141587913</v>
+        <v>0.3859653101539493</v>
       </c>
       <c r="K17">
-        <v>0.4788059477537701</v>
+        <v>0.370492011006796</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1625217374278378</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1186244137146453</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.20544308199446</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>2.897975642889094</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.243543106741953</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.128892719855585</v>
+      </c>
+      <c r="R17">
+        <v>2.565374019202523</v>
+      </c>
+      <c r="S17">
+        <v>2.240661095830205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6172427333015662</v>
+        <v>0.7582928139098613</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03307615726199487</v>
+        <v>0.03322183688457159</v>
       </c>
       <c r="E18">
-        <v>0.2132006352445046</v>
+        <v>0.1962144322402324</v>
       </c>
       <c r="F18">
-        <v>0.843702212503544</v>
+        <v>0.8444517195685535</v>
       </c>
       <c r="G18">
-        <v>0.7423327355250535</v>
+        <v>0.7705193533282539</v>
       </c>
       <c r="H18">
-        <v>0.08387011162834312</v>
+        <v>0.08317313994125897</v>
       </c>
       <c r="I18">
-        <v>0.005734345646782657</v>
+        <v>0.003772921159889364</v>
       </c>
       <c r="J18">
-        <v>0.3823428273799863</v>
+        <v>0.4131940656867812</v>
       </c>
       <c r="K18">
-        <v>0.4536917492659853</v>
+        <v>0.3531849770323312</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1545164669832246</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1135455611444911</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.402540301050365</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2.732219615902665</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.328484443027094</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.32448710959217</v>
+      </c>
+      <c r="R18">
+        <v>2.423612741480525</v>
+      </c>
+      <c r="S18">
+        <v>2.334387106630601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5956807564946587</v>
+        <v>0.7274494064070609</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02889834612474118</v>
+        <v>0.02904827924106712</v>
       </c>
       <c r="E19">
-        <v>0.1886713709707108</v>
+        <v>0.1796906129764397</v>
       </c>
       <c r="F19">
-        <v>0.8905247137922601</v>
+        <v>0.8917515545864774</v>
       </c>
       <c r="G19">
-        <v>0.7945338151370152</v>
+        <v>0.8204285910929059</v>
       </c>
       <c r="H19">
-        <v>0.04045625523949781</v>
+        <v>0.03971858114793747</v>
       </c>
       <c r="I19">
-        <v>0.005844610362638392</v>
+        <v>0.003915237033289998</v>
       </c>
       <c r="J19">
-        <v>0.4089676605398154</v>
+        <v>0.4433512478683923</v>
       </c>
       <c r="K19">
-        <v>0.4307517630120401</v>
+        <v>0.3379297021808654</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1485198865976507</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1081173835899918</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.714687697833298</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>2.583196971597317</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.494863063729468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.632408331293362</v>
+      </c>
+      <c r="R19">
+        <v>2.298693781046694</v>
+      </c>
+      <c r="S19">
+        <v>2.502525954625298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5962327166133718</v>
+        <v>0.7186078669308245</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02459431412556157</v>
+        <v>0.02508743059120633</v>
       </c>
       <c r="E20">
-        <v>0.2703878867652847</v>
+        <v>0.2718860591880556</v>
       </c>
       <c r="F20">
-        <v>1.010905987816926</v>
+        <v>1.006847762376864</v>
       </c>
       <c r="G20">
-        <v>0.9207248005215547</v>
+        <v>0.961859650633258</v>
       </c>
       <c r="H20">
-        <v>0.02066985618236394</v>
+        <v>0.01971964987985109</v>
       </c>
       <c r="I20">
-        <v>0.005536244434193982</v>
+        <v>0.00378721233717183</v>
       </c>
       <c r="J20">
-        <v>0.4692562504745581</v>
+        <v>0.4814377483147041</v>
       </c>
       <c r="K20">
-        <v>0.4047188300413893</v>
+        <v>0.321366813794608</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1451231321940689</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09944724275547401</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.333964047260167</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>2.451483507562756</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.888718022629519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>2.240332965336805</v>
+      </c>
+      <c r="R20">
+        <v>2.195475453130371</v>
+      </c>
+      <c r="S20">
+        <v>2.878232643353726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6690799432311962</v>
+        <v>0.8000819072614718</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02735763285606652</v>
+        <v>0.02986108988657321</v>
       </c>
       <c r="E21">
-        <v>0.2984615548679344</v>
+        <v>0.3038260811333089</v>
       </c>
       <c r="F21">
-        <v>1.147199165251735</v>
+        <v>1.108746386551388</v>
       </c>
       <c r="G21">
-        <v>1.049567611775686</v>
+        <v>1.201243799767781</v>
       </c>
       <c r="H21">
-        <v>0.02653689487572297</v>
+        <v>0.02513507040524621</v>
       </c>
       <c r="I21">
-        <v>0.004841449776046503</v>
+        <v>0.003436102832457877</v>
       </c>
       <c r="J21">
-        <v>0.5257787604108728</v>
+        <v>0.3872643232541009</v>
       </c>
       <c r="K21">
-        <v>0.4179756654892302</v>
+        <v>0.3330428193407684</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1580199055115017</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.09671067227526819</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.671485537495798</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>2.632865044952155</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>3.28053507093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>2.545715236702989</v>
+      </c>
+      <c r="R21">
+        <v>2.371428495537771</v>
+      </c>
+      <c r="S21">
+        <v>3.150528408682874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7218653904558607</v>
+        <v>0.8588859809724454</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02939919372185784</v>
+        <v>0.03341700415237625</v>
       </c>
       <c r="E22">
-        <v>0.3102985838286259</v>
+        <v>0.3180894469904665</v>
       </c>
       <c r="F22">
-        <v>1.233615955467855</v>
+        <v>1.170094397047052</v>
       </c>
       <c r="G22">
-        <v>1.130598882141555</v>
+        <v>1.36592933084313</v>
       </c>
       <c r="H22">
-        <v>0.03041454429726098</v>
+        <v>0.02869014243992396</v>
       </c>
       <c r="I22">
-        <v>0.00411794916115138</v>
+        <v>0.002864032720744092</v>
       </c>
       <c r="J22">
-        <v>0.5612179949743847</v>
+        <v>0.3247227674997504</v>
       </c>
       <c r="K22">
-        <v>0.4257197638052475</v>
+        <v>0.3400673791139894</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1666336394708452</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.09471195474437621</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.861523710820961</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>2.751669270196714</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>3.526726277456874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>2.71343934359723</v>
+      </c>
+      <c r="R22">
+        <v>2.487556950119796</v>
+      </c>
+      <c r="S22">
+        <v>3.309776406820561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6981598689991131</v>
+        <v>0.8317441850719547</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02829403591321977</v>
+        <v>0.03127166294795103</v>
       </c>
       <c r="E23">
-        <v>0.3045208810009221</v>
+        <v>0.3106182666042798</v>
       </c>
       <c r="F23">
-        <v>1.187630024075276</v>
+        <v>1.141156900455883</v>
       </c>
       <c r="G23">
-        <v>1.087522127969194</v>
+        <v>1.265474982504003</v>
       </c>
       <c r="H23">
-        <v>0.02831322331460551</v>
+        <v>0.02678671387845344</v>
       </c>
       <c r="I23">
-        <v>0.004161708473088943</v>
+        <v>0.00277306613408701</v>
       </c>
       <c r="J23">
-        <v>0.5423874047936863</v>
+        <v>0.3716612110385711</v>
       </c>
       <c r="K23">
-        <v>0.4188489846279353</v>
+        <v>0.3341528326975229</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.161156688841892</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09500802989965962</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.756729343520661</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>2.678756008129994</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>3.395868688404448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>2.623813377431304</v>
+      </c>
+      <c r="R23">
+        <v>2.416751127293367</v>
+      </c>
+      <c r="S23">
+        <v>3.238067206548294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6002603716125918</v>
+        <v>0.7215191854604086</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02415424867700722</v>
+        <v>0.02463557351770618</v>
       </c>
       <c r="E24">
-        <v>0.2818772772752745</v>
+        <v>0.2839932482428011</v>
       </c>
       <c r="F24">
-        <v>1.015421702874335</v>
+        <v>1.011567311562487</v>
       </c>
       <c r="G24">
-        <v>0.9260775238645209</v>
+        <v>0.9663059931007041</v>
       </c>
       <c r="H24">
-        <v>0.02092184568120581</v>
+        <v>0.01996667438806543</v>
       </c>
       <c r="I24">
-        <v>0.004991319558345531</v>
+        <v>0.003155700222687408</v>
       </c>
       <c r="J24">
-        <v>0.4720076598269429</v>
+        <v>0.4854583931342518</v>
       </c>
       <c r="K24">
-        <v>0.398158230548475</v>
+        <v>0.3166685975588095</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1433035011296546</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09775505843946064</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.36620700861846</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>2.420200019634365</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.905821419600869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>2.273083725949988</v>
+      </c>
+      <c r="R24">
+        <v>2.169023195959227</v>
+      </c>
+      <c r="S24">
+        <v>2.896041529720179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4930171695924912</v>
+        <v>0.6018274387035092</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01972775440008334</v>
+        <v>0.01994386845965224</v>
       </c>
       <c r="E25">
-        <v>0.2575827311926311</v>
+        <v>0.2590753448984913</v>
       </c>
       <c r="F25">
-        <v>0.8338894544178999</v>
+        <v>0.8352548605168693</v>
       </c>
       <c r="G25">
-        <v>0.7557277567816101</v>
+        <v>0.7786609370313471</v>
       </c>
       <c r="H25">
-        <v>0.01397149410419291</v>
+        <v>0.01332600264581241</v>
       </c>
       <c r="I25">
-        <v>0.006170404550746689</v>
+        <v>0.003812146330339772</v>
       </c>
       <c r="J25">
-        <v>0.3982189061564867</v>
+        <v>0.4323483935955466</v>
       </c>
       <c r="K25">
-        <v>0.3776495947032394</v>
+        <v>0.3008082012758031</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1271609996058984</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1016855901993274</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.946398261848742</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>2.14547132116266</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.389686638278192</v>
+        <v>1.865523319774312</v>
+      </c>
+      <c r="R25">
+        <v>1.915527042384326</v>
+      </c>
+      <c r="S25">
+        <v>2.397562817074061</v>
       </c>
     </row>
   </sheetData>
